--- a/tests/eindhoven-500/reference/resultaten/werk/concurrentie/arbeidsplaatsen/restdag/Ontpl_concproduct_Auto_OV.xlsx
+++ b/tests/eindhoven-500/reference/resultaten/werk/concurrentie/arbeidsplaatsen/restdag/Ontpl_concproduct_Auto_OV.xlsx
@@ -408,7 +408,7 @@
         <v>7.770171535298868</v>
       </c>
       <c r="C3">
-        <v>7.946039111004122</v>
+        <v>7.946039111004123</v>
       </c>
       <c r="D3">
         <v>9.209529458884285</v>
@@ -422,16 +422,16 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>0.7467939993372656</v>
+        <v>0.7467939993372658</v>
       </c>
       <c r="C4">
-        <v>0.700471543002712</v>
+        <v>0.7004715430027117</v>
       </c>
       <c r="D4">
         <v>0.8586020045453152</v>
       </c>
       <c r="E4">
-        <v>0.8870007536572135</v>
+        <v>0.8870007536572134</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -439,10 +439,10 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>24.64420197812976</v>
+        <v>24.64420197812977</v>
       </c>
       <c r="C5">
-        <v>21.71461783308407</v>
+        <v>21.71461783308406</v>
       </c>
       <c r="D5">
         <v>26.61666214090477</v>
@@ -459,13 +459,13 @@
         <v>39.58008196487508</v>
       </c>
       <c r="C6">
-        <v>28.71933326311119</v>
+        <v>28.71933326311118</v>
       </c>
       <c r="D6">
         <v>37.77848819999387</v>
       </c>
       <c r="E6">
-        <v>55.88104748040445</v>
+        <v>55.88104748040444</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -473,7 +473,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>51.04725902334163</v>
+        <v>51.04725902334165</v>
       </c>
       <c r="C7">
         <v>36.59125062013835</v>
@@ -490,7 +490,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>174.7110414460847</v>
+        <v>174.7110414460848</v>
       </c>
       <c r="C8">
         <v>152.8991543770067</v>
@@ -510,10 +510,10 @@
         <v>86.63938611432347</v>
       </c>
       <c r="C9">
-        <v>86.99145560795895</v>
+        <v>86.99145560795897</v>
       </c>
       <c r="D9">
-        <v>75.56579942448712</v>
+        <v>75.56579942448714</v>
       </c>
       <c r="E9">
         <v>35.21645211997197</v>
@@ -527,7 +527,7 @@
         <v>64.70779312817953</v>
       </c>
       <c r="C10">
-        <v>85.59738984353793</v>
+        <v>85.59738984353794</v>
       </c>
       <c r="D10">
         <v>72.30062721446426</v>
@@ -541,10 +541,10 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>57.51803833615958</v>
+        <v>57.5180383361596</v>
       </c>
       <c r="C11">
-        <v>57.50053668878883</v>
+        <v>57.50053668878884</v>
       </c>
       <c r="D11">
         <v>50.29608849701861</v>
@@ -567,7 +567,7 @@
         <v>20.67903828663099</v>
       </c>
       <c r="E12">
-        <v>40.17752465098831</v>
+        <v>40.1775246509883</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -578,7 +578,7 @@
         <v>87.19859167390952</v>
       </c>
       <c r="C13">
-        <v>93.76326150984863</v>
+        <v>93.76326150984865</v>
       </c>
       <c r="D13">
         <v>116.9610241278304</v>
@@ -598,10 +598,10 @@
         <v>34.25037319507828</v>
       </c>
       <c r="D14">
-        <v>54.59266107670581</v>
+        <v>54.5926610767058</v>
       </c>
       <c r="E14">
-        <v>74.24107815943492</v>
+        <v>74.24107815943491</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -609,16 +609,16 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>84.83910654583539</v>
+        <v>84.83910654583541</v>
       </c>
       <c r="C15">
-        <v>73.18250124027669</v>
+        <v>73.18250124027671</v>
       </c>
       <c r="D15">
         <v>88.80403125254848</v>
       </c>
       <c r="E15">
-        <v>98.47659577912179</v>
+        <v>98.47659577912181</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -643,7 +643,7 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>53.50384204419301</v>
+        <v>53.50384204419302</v>
       </c>
       <c r="C17">
         <v>51.71134776511819</v>
@@ -663,13 +663,13 @@
         <v>54.39120074709208</v>
       </c>
       <c r="C18">
-        <v>50.85465031042638</v>
+        <v>50.85465031042639</v>
       </c>
       <c r="D18">
         <v>67.22956504985528</v>
       </c>
       <c r="E18">
-        <v>88.82387643209154</v>
+        <v>88.82387643209152</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -680,7 +680,7 @@
         <v>100.9583018096326</v>
       </c>
       <c r="C19">
-        <v>98.00152837531616</v>
+        <v>98.00152837531617</v>
       </c>
       <c r="D19">
         <v>115.4643769799813</v>
@@ -697,13 +697,13 @@
         <v>79.32437999328275</v>
       </c>
       <c r="C20">
-        <v>74.83753075933234</v>
+        <v>74.83753075933237</v>
       </c>
       <c r="D20">
         <v>91.23111267554081</v>
       </c>
       <c r="E20">
-        <v>96.46046321871832</v>
+        <v>96.4604632187183</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -714,13 +714,13 @@
         <v>89.15798081889632</v>
       </c>
       <c r="C21">
-        <v>80.77701732753331</v>
+        <v>80.77701732753334</v>
       </c>
       <c r="D21">
         <v>73.41253598109925</v>
       </c>
       <c r="E21">
-        <v>42.9550500270855</v>
+        <v>42.95505002708549</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -737,7 +737,7 @@
         <v>43.14911748046849</v>
       </c>
       <c r="E22">
-        <v>62.9149833398395</v>
+        <v>62.91498333983951</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -751,7 +751,7 @@
         <v>14.44326400299087</v>
       </c>
       <c r="D23">
-        <v>16.77208390769854</v>
+        <v>16.77208390769853</v>
       </c>
       <c r="E23">
         <v>12.19740046704652</v>
@@ -802,7 +802,7 @@
         <v>0.5878915797025557</v>
       </c>
       <c r="D26">
-        <v>0.7115155642005089</v>
+        <v>0.7115155642005088</v>
       </c>
       <c r="E26">
         <v>0.7622772048076156</v>
@@ -816,7 +816,7 @@
         <v>60.78347364305796</v>
       </c>
       <c r="C27">
-        <v>62.40897426520882</v>
+        <v>62.40897426520883</v>
       </c>
       <c r="D27">
         <v>77.74717897883541</v>
@@ -833,7 +833,7 @@
         <v>41.30159106515477</v>
       </c>
       <c r="C28">
-        <v>43.31917037232141</v>
+        <v>43.31917037232142</v>
       </c>
       <c r="D28">
         <v>51.24245887241426</v>
@@ -884,13 +884,13 @@
         <v>203.7056461298592</v>
       </c>
       <c r="C31">
-        <v>256.9929473958898</v>
+        <v>256.9929473958897</v>
       </c>
       <c r="D31">
-        <v>235.9905714547609</v>
+        <v>235.9905714547608</v>
       </c>
       <c r="E31">
-        <v>131.9556827260497</v>
+        <v>131.9556827260496</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -915,10 +915,10 @@
         <v>32</v>
       </c>
       <c r="B33">
-        <v>174.4950251753889</v>
+        <v>174.4950251753888</v>
       </c>
       <c r="C33">
-        <v>189.0343260480405</v>
+        <v>189.0343260480404</v>
       </c>
       <c r="D33">
         <v>208.8261891290329</v>
@@ -941,7 +941,7 @@
         <v>15.7408238569751</v>
       </c>
       <c r="E34">
-        <v>52.27113717623795</v>
+        <v>52.27113717623794</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -952,10 +952,10 @@
         <v>68.77915944727899</v>
       </c>
       <c r="C35">
-        <v>69.81653259299574</v>
+        <v>69.81653259299573</v>
       </c>
       <c r="D35">
-        <v>80.8620924356125</v>
+        <v>80.86209243561248</v>
       </c>
       <c r="E35">
         <v>99.80931453269913</v>
@@ -969,13 +969,13 @@
         <v>313.6369135893869</v>
       </c>
       <c r="C36">
-        <v>380.2475894792075</v>
+        <v>380.2475894792074</v>
       </c>
       <c r="D36">
-        <v>476.7028698079378</v>
+        <v>476.7028698079377</v>
       </c>
       <c r="E36">
-        <v>492.0353658854962</v>
+        <v>492.0353658854963</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -983,16 +983,16 @@
         <v>36</v>
       </c>
       <c r="B37">
-        <v>440.3968239261252</v>
+        <v>440.3968239261251</v>
       </c>
       <c r="C37">
-        <v>543.4721680470083</v>
+        <v>543.4721680470082</v>
       </c>
       <c r="D37">
         <v>483.5437993639197</v>
       </c>
       <c r="E37">
-        <v>255.9851000228579</v>
+        <v>255.985100022858</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1000,16 +1000,16 @@
         <v>37</v>
       </c>
       <c r="B38">
-        <v>465.9832591190163</v>
+        <v>465.9832591190162</v>
       </c>
       <c r="C38">
-        <v>459.3819185497634</v>
+        <v>459.3819185497633</v>
       </c>
       <c r="D38">
-        <v>466.7248846034355</v>
+        <v>466.7248846034354</v>
       </c>
       <c r="E38">
-        <v>410.2325320879133</v>
+        <v>410.2325320879135</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1020,13 +1020,13 @@
         <v>21.53367976077927</v>
       </c>
       <c r="C39">
-        <v>35.81545432289492</v>
+        <v>35.8154543228949</v>
       </c>
       <c r="D39">
         <v>25.70014686650272</v>
       </c>
       <c r="E39">
-        <v>6.517988635583235</v>
+        <v>6.517988635583234</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1034,13 +1034,13 @@
         <v>39</v>
       </c>
       <c r="B40">
-        <v>3.388224929914249</v>
+        <v>3.38822492991425</v>
       </c>
       <c r="C40">
-        <v>3.427880391871825</v>
+        <v>3.427880391871824</v>
       </c>
       <c r="D40">
-        <v>3.421036745743402</v>
+        <v>3.421036745743401</v>
       </c>
       <c r="E40">
         <v>3.088785899668096</v>
@@ -1071,13 +1071,13 @@
         <v>385.5922463011856</v>
       </c>
       <c r="C42">
-        <v>309.5893368145946</v>
+        <v>309.5893368145945</v>
       </c>
       <c r="D42">
         <v>408.1261676649968</v>
       </c>
       <c r="E42">
-        <v>740.6010750848351</v>
+        <v>740.601075084835</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1091,7 +1091,7 @@
         <v>353.3052312918691</v>
       </c>
       <c r="D43">
-        <v>452.9727497634736</v>
+        <v>452.9727497634735</v>
       </c>
       <c r="E43">
         <v>910.9868399744496</v>
@@ -1108,7 +1108,7 @@
         <v>161.0857591480146</v>
       </c>
       <c r="D44">
-        <v>175.0568724344834</v>
+        <v>175.0568724344835</v>
       </c>
       <c r="E44">
         <v>199.5894141306882</v>
@@ -1176,7 +1176,7 @@
         <v>42.35406984906464</v>
       </c>
       <c r="D48">
-        <v>52.98451591808856</v>
+        <v>52.98451591808855</v>
       </c>
       <c r="E48">
         <v>76.21755426366721</v>
@@ -1196,7 +1196,7 @@
         <v>518.4917608211402</v>
       </c>
       <c r="E49">
-        <v>388.4480400834217</v>
+        <v>388.4480400834218</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1224,7 +1224,7 @@
         <v>183.9738595240855</v>
       </c>
       <c r="C51">
-        <v>173.4327591256113</v>
+        <v>173.4327591256114</v>
       </c>
       <c r="D51">
         <v>178.1106135397117</v>
@@ -1238,13 +1238,13 @@
         <v>51</v>
       </c>
       <c r="B52">
-        <v>88.77814797033861</v>
+        <v>88.77814797033862</v>
       </c>
       <c r="C52">
         <v>75.87249135706077</v>
       </c>
       <c r="D52">
-        <v>95.1090924282405</v>
+        <v>95.10909242824049</v>
       </c>
       <c r="E52">
         <v>130.8078994046785</v>
@@ -1255,13 +1255,13 @@
         <v>52</v>
       </c>
       <c r="B53">
-        <v>362.8927105188036</v>
+        <v>362.8927105188037</v>
       </c>
       <c r="C53">
         <v>363.0515855944977</v>
       </c>
       <c r="D53">
-        <v>343.2311832934215</v>
+        <v>343.2311832934214</v>
       </c>
       <c r="E53">
         <v>216.8968390922183</v>
@@ -1272,13 +1272,13 @@
         <v>53</v>
       </c>
       <c r="B54">
-        <v>374.7561984270052</v>
+        <v>374.7561984270053</v>
       </c>
       <c r="C54">
         <v>397.5444697403084</v>
       </c>
       <c r="D54">
-        <v>463.1672957449264</v>
+        <v>463.1672957449265</v>
       </c>
       <c r="E54">
         <v>419.8564478136519</v>
@@ -1315,7 +1315,7 @@
         <v>50.93535493656083</v>
       </c>
       <c r="E56">
-        <v>78.8863931098434</v>
+        <v>78.88639310984341</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -1363,7 +1363,7 @@
         <v>23.18123117621876</v>
       </c>
       <c r="D59">
-        <v>29.53429165192553</v>
+        <v>29.53429165192552</v>
       </c>
       <c r="E59">
         <v>37.34954015896175</v>
@@ -1380,7 +1380,7 @@
         <v>218.9343138691841</v>
       </c>
       <c r="D60">
-        <v>241.1960412388043</v>
+        <v>241.1960412388042</v>
       </c>
       <c r="E60">
         <v>180.3482688573879</v>
@@ -1391,16 +1391,16 @@
         <v>60</v>
       </c>
       <c r="B61">
-        <v>64.54166294916151</v>
+        <v>64.54166294916155</v>
       </c>
       <c r="C61">
         <v>62.15974237994422</v>
       </c>
       <c r="D61">
-        <v>81.74991873920257</v>
+        <v>81.74991873920256</v>
       </c>
       <c r="E61">
-        <v>93.45983163459779</v>
+        <v>93.4598316345978</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -1408,10 +1408,10 @@
         <v>61</v>
       </c>
       <c r="B62">
-        <v>85.81377496114084</v>
+        <v>85.81377496114085</v>
       </c>
       <c r="C62">
-        <v>90.80536951066775</v>
+        <v>90.80536951066777</v>
       </c>
       <c r="D62">
         <v>121.2717383364409</v>
@@ -1428,7 +1428,7 @@
         <v>32.12732461599361</v>
       </c>
       <c r="C63">
-        <v>32.19463100832765</v>
+        <v>32.19463100832767</v>
       </c>
       <c r="D63">
         <v>46.96307514009231</v>
@@ -1442,7 +1442,7 @@
         <v>63</v>
       </c>
       <c r="B64">
-        <v>32.6566397819451</v>
+        <v>32.65663978194512</v>
       </c>
       <c r="C64">
         <v>36.1913870323916</v>
@@ -1462,10 +1462,10 @@
         <v>10.3126230890353</v>
       </c>
       <c r="C65">
-        <v>7.962105147126152</v>
+        <v>7.962105147126151</v>
       </c>
       <c r="D65">
-        <v>13.39756758562628</v>
+        <v>13.39756758562627</v>
       </c>
       <c r="E65">
         <v>26.10007804259171</v>
@@ -1479,10 +1479,10 @@
         <v>347.5205306936591</v>
       </c>
       <c r="C66">
-        <v>355.181925086073</v>
+        <v>355.1819250860729</v>
       </c>
       <c r="D66">
-        <v>355.1319554630896</v>
+        <v>355.1319554630895</v>
       </c>
       <c r="E66">
         <v>321.4617167189635</v>
@@ -1502,7 +1502,7 @@
         <v>90.14718558996861</v>
       </c>
       <c r="E67">
-        <v>191.3199620116874</v>
+        <v>191.3199620116873</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -1516,7 +1516,7 @@
         <v>283.0355965529644</v>
       </c>
       <c r="D68">
-        <v>257.3553651277974</v>
+        <v>257.3553651277973</v>
       </c>
       <c r="E68">
         <v>173.3628228375982</v>
@@ -1533,10 +1533,10 @@
         <v>275.8982111992549</v>
       </c>
       <c r="D69">
-        <v>266.2486644168841</v>
+        <v>266.248664416884</v>
       </c>
       <c r="E69">
-        <v>241.5656086006154</v>
+        <v>241.5656086006153</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -1584,7 +1584,7 @@
         <v>25.54227446129764</v>
       </c>
       <c r="D72">
-        <v>22.72351985512604</v>
+        <v>22.72351985512603</v>
       </c>
       <c r="E72">
         <v>20.53079950794509</v>
@@ -1595,7 +1595,7 @@
         <v>72</v>
       </c>
       <c r="B73">
-        <v>55.6877096389338</v>
+        <v>55.68770963893382</v>
       </c>
       <c r="C73">
         <v>53.40657387362235</v>
@@ -1604,7 +1604,7 @@
         <v>56.26776345078827</v>
       </c>
       <c r="E73">
-        <v>66.48068412096505</v>
+        <v>66.48068412096504</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -1618,10 +1618,10 @@
         <v>19.73721208373</v>
       </c>
       <c r="D74">
-        <v>20.5593751070188</v>
+        <v>20.55937510701879</v>
       </c>
       <c r="E74">
-        <v>22.48611374679701</v>
+        <v>22.486113746797</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -1629,7 +1629,7 @@
         <v>74</v>
       </c>
       <c r="B75">
-        <v>50.93381813104751</v>
+        <v>50.93381813104752</v>
       </c>
       <c r="C75">
         <v>41.92779820603158</v>
@@ -1697,13 +1697,13 @@
         <v>78</v>
       </c>
       <c r="B79">
-        <v>5.801579985766487</v>
+        <v>5.801579985766488</v>
       </c>
       <c r="C79">
         <v>5.564752014112363</v>
       </c>
       <c r="D79">
-        <v>6.336706424681788</v>
+        <v>6.336706424681786</v>
       </c>
       <c r="E79">
         <v>5.782515708502573</v>
@@ -1757,7 +1757,7 @@
         <v>21.0517655117549</v>
       </c>
       <c r="E82">
-        <v>26.74448201981521</v>
+        <v>26.7444820198152</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -1791,7 +1791,7 @@
         <v>55.45620544571323</v>
       </c>
       <c r="E84">
-        <v>74.7044751782683</v>
+        <v>74.70447517826831</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -1805,7 +1805,7 @@
         <v>233.549598713485</v>
       </c>
       <c r="D85">
-        <v>232.6911421957305</v>
+        <v>232.6911421957304</v>
       </c>
       <c r="E85">
         <v>196.3748011613555</v>
@@ -1839,7 +1839,7 @@
         <v>147.0948109437964</v>
       </c>
       <c r="D87">
-        <v>162.6188015782159</v>
+        <v>162.6188015782158</v>
       </c>
       <c r="E87">
         <v>172.8187606076964</v>
@@ -1867,16 +1867,16 @@
         <v>88</v>
       </c>
       <c r="B89">
-        <v>51.46413739174959</v>
+        <v>51.4641373917496</v>
       </c>
       <c r="C89">
         <v>44.9794049993427</v>
       </c>
       <c r="D89">
-        <v>43.21338783197344</v>
+        <v>43.21338783197343</v>
       </c>
       <c r="E89">
-        <v>47.94971392583485</v>
+        <v>47.94971392583484</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -1884,7 +1884,7 @@
         <v>89</v>
       </c>
       <c r="B90">
-        <v>795.76385297378</v>
+        <v>795.7638529737799</v>
       </c>
       <c r="C90">
         <v>687.2880957867288</v>
@@ -1901,10 +1901,10 @@
         <v>90</v>
       </c>
       <c r="B91">
-        <v>472.0435410957172</v>
+        <v>472.043541095717</v>
       </c>
       <c r="C91">
-        <v>425.6762691901262</v>
+        <v>425.6762691901261</v>
       </c>
       <c r="D91">
         <v>477.3754450648491</v>
@@ -1918,13 +1918,13 @@
         <v>91</v>
       </c>
       <c r="B92">
-        <v>377.0210314163454</v>
+        <v>377.0210314163452</v>
       </c>
       <c r="C92">
         <v>330.3396682356512</v>
       </c>
       <c r="D92">
-        <v>385.128516990763</v>
+        <v>385.1285169907629</v>
       </c>
       <c r="E92">
         <v>631.3399641768143</v>
@@ -1944,7 +1944,7 @@
         <v>38.11038815477401</v>
       </c>
       <c r="E93">
-        <v>37.03200858484969</v>
+        <v>37.03200858484968</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -1958,10 +1958,10 @@
         <v>160.4027239083644</v>
       </c>
       <c r="D94">
-        <v>89.49549864798303</v>
+        <v>89.49549864798304</v>
       </c>
       <c r="E94">
-        <v>26.53115508099814</v>
+        <v>26.53115508099813</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -1969,7 +1969,7 @@
         <v>94</v>
       </c>
       <c r="B95">
-        <v>417.0754329376618</v>
+        <v>417.0754329376617</v>
       </c>
       <c r="C95">
         <v>370.7451785036298</v>
@@ -1986,7 +1986,7 @@
         <v>95</v>
       </c>
       <c r="B96">
-        <v>359.477882175437</v>
+        <v>359.4778821754369</v>
       </c>
       <c r="C96">
         <v>317.5563597840812</v>
@@ -2012,7 +2012,7 @@
         <v>118.6866373962962</v>
       </c>
       <c r="E97">
-        <v>304.05228101245</v>
+        <v>304.0522810124501</v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -2026,10 +2026,10 @@
         <v>341.7865244616871</v>
       </c>
       <c r="D98">
-        <v>383.0520923199114</v>
+        <v>383.0520923199113</v>
       </c>
       <c r="E98">
-        <v>552.6715777626056</v>
+        <v>552.6715777626055</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -2057,7 +2057,7 @@
         <v>228.7117926272749</v>
       </c>
       <c r="C100">
-        <v>226.6369636956505</v>
+        <v>226.6369636956504</v>
       </c>
       <c r="D100">
         <v>200.9961407569035</v>
@@ -2074,7 +2074,7 @@
         <v>92.51496838059381</v>
       </c>
       <c r="C101">
-        <v>93.77490990256743</v>
+        <v>93.7749099025674</v>
       </c>
       <c r="D101">
         <v>105.6955278017057</v>
@@ -2097,7 +2097,7 @@
         <v>21.46265676954402</v>
       </c>
       <c r="E102">
-        <v>79.65581457740534</v>
+        <v>79.65581457740532</v>
       </c>
     </row>
     <row r="103" spans="1:5">
@@ -2105,7 +2105,7 @@
         <v>102</v>
       </c>
       <c r="B103">
-        <v>354.8119350551418</v>
+        <v>354.8119350551417</v>
       </c>
       <c r="C103">
         <v>360.5566375861649</v>
@@ -2114,7 +2114,7 @@
         <v>294.1108289960361</v>
       </c>
       <c r="E103">
-        <v>183.5672692755137</v>
+        <v>183.5672692755138</v>
       </c>
     </row>
     <row r="104" spans="1:5">
@@ -2125,13 +2125,13 @@
         <v>463.1982898558478</v>
       </c>
       <c r="C104">
-        <v>408.5627621372973</v>
+        <v>408.5627621372972</v>
       </c>
       <c r="D104">
         <v>460.7401723862819</v>
       </c>
       <c r="E104">
-        <v>650.487092663487</v>
+        <v>650.4870926634871</v>
       </c>
     </row>
     <row r="105" spans="1:5">
@@ -2142,7 +2142,7 @@
         <v>145.0847712895096</v>
       </c>
       <c r="C105">
-        <v>126.4869177321274</v>
+        <v>126.4869177321273</v>
       </c>
       <c r="D105">
         <v>138.569992913044</v>
@@ -2156,7 +2156,7 @@
         <v>105</v>
       </c>
       <c r="B106">
-        <v>89.45409926919984</v>
+        <v>89.45409926919983</v>
       </c>
       <c r="C106">
         <v>42.61963584027924</v>
@@ -2173,7 +2173,7 @@
         <v>106</v>
       </c>
       <c r="B107">
-        <v>219.8015010614625</v>
+        <v>219.8015010614624</v>
       </c>
       <c r="C107">
         <v>147.8368618209686</v>
@@ -2224,7 +2224,7 @@
         <v>109</v>
       </c>
       <c r="B110">
-        <v>0.983510269835746</v>
+        <v>0.9835102698357461</v>
       </c>
       <c r="C110">
         <v>1.068491659782862</v>
@@ -2233,7 +2233,7 @@
         <v>1.080378890037962</v>
       </c>
       <c r="E110">
-        <v>0.9852958902130047</v>
+        <v>0.9852958902130046</v>
       </c>
     </row>
     <row r="111" spans="1:5">
@@ -2261,10 +2261,10 @@
         <v>252.9177597831391</v>
       </c>
       <c r="C112">
-        <v>265.2681015543864</v>
+        <v>265.2681015543863</v>
       </c>
       <c r="D112">
-        <v>276.8034275355241</v>
+        <v>276.803427535524</v>
       </c>
       <c r="E112">
         <v>276.6139083885209</v>
@@ -2278,7 +2278,7 @@
         <v>311.7390851500498</v>
       </c>
       <c r="C113">
-        <v>338.8812548394285</v>
+        <v>338.8812548394284</v>
       </c>
       <c r="D113">
         <v>218.644491862259</v>
@@ -2295,13 +2295,13 @@
         <v>230.1827734749891</v>
       </c>
       <c r="C114">
-        <v>206.5709368322202</v>
+        <v>206.5709368322201</v>
       </c>
       <c r="D114">
         <v>257.5588047444937</v>
       </c>
       <c r="E114">
-        <v>460.1999920295412</v>
+        <v>460.1999920295411</v>
       </c>
     </row>
     <row r="115" spans="1:5">
@@ -2309,7 +2309,7 @@
         <v>114</v>
       </c>
       <c r="B115">
-        <v>185.7093241135329</v>
+        <v>185.709324113533</v>
       </c>
       <c r="C115">
         <v>202.8369861558322</v>
@@ -2326,7 +2326,7 @@
         <v>115</v>
       </c>
       <c r="B116">
-        <v>471.5249707584879</v>
+        <v>471.524970758488</v>
       </c>
       <c r="C116">
         <v>472.2576050400059</v>
@@ -2335,7 +2335,7 @@
         <v>475.3797994631825</v>
       </c>
       <c r="E116">
-        <v>466.3729376925914</v>
+        <v>466.3729376925915</v>
       </c>
     </row>
     <row r="117" spans="1:5">
@@ -2383,7 +2383,7 @@
         <v>11.73994795372919</v>
       </c>
       <c r="D119">
-        <v>13.66778378724532</v>
+        <v>13.66778378724533</v>
       </c>
       <c r="E119">
         <v>38.02149999637003</v>
@@ -2394,7 +2394,7 @@
         <v>119</v>
       </c>
       <c r="B120">
-        <v>335.1254537018366</v>
+        <v>335.1254537018367</v>
       </c>
       <c r="C120">
         <v>232.537631629193</v>
@@ -2403,7 +2403,7 @@
         <v>295.2857311602756</v>
       </c>
       <c r="E120">
-        <v>710.7081805665536</v>
+        <v>710.7081805665534</v>
       </c>
     </row>
     <row r="121" spans="1:5">
@@ -2411,7 +2411,7 @@
         <v>120</v>
       </c>
       <c r="B121">
-        <v>663.0696476814909</v>
+        <v>663.0696476814911</v>
       </c>
       <c r="C121">
         <v>652.4599567071532</v>
@@ -2431,7 +2431,7 @@
         <v>605.5470839577788</v>
       </c>
       <c r="C122">
-        <v>673.7678615777049</v>
+        <v>673.7678615777048</v>
       </c>
       <c r="D122">
         <v>578.7966091479001</v>
@@ -2516,10 +2516,10 @@
         <v>740.5948320357304</v>
       </c>
       <c r="C127">
-        <v>743.6398357151642</v>
+        <v>743.6398357151639</v>
       </c>
       <c r="D127">
-        <v>607.707146721067</v>
+        <v>607.7071467210669</v>
       </c>
       <c r="E127">
         <v>403.5138678460876</v>
@@ -2530,7 +2530,7 @@
         <v>127</v>
       </c>
       <c r="B128">
-        <v>61.04448291779755</v>
+        <v>61.04448291779757</v>
       </c>
       <c r="C128">
         <v>19.88957889326559</v>
@@ -2539,7 +2539,7 @@
         <v>26.92383886562043</v>
       </c>
       <c r="E128">
-        <v>166.034707568286</v>
+        <v>166.0347075682859</v>
       </c>
     </row>
     <row r="129" spans="1:5">
@@ -2553,7 +2553,7 @@
         <v>44.04121040651666</v>
       </c>
       <c r="D129">
-        <v>57.69394042632948</v>
+        <v>57.69394042632949</v>
       </c>
       <c r="E129">
         <v>150.5381348619126</v>
@@ -2567,10 +2567,10 @@
         <v>327.7994131308775</v>
       </c>
       <c r="C130">
-        <v>300.516952220187</v>
+        <v>300.5169522201869</v>
       </c>
       <c r="D130">
-        <v>229.5036993018098</v>
+        <v>229.5036993018097</v>
       </c>
       <c r="E130">
         <v>141.2503777597614</v>
@@ -2584,7 +2584,7 @@
         <v>557.5959911039484</v>
       </c>
       <c r="C131">
-        <v>542.8711147670358</v>
+        <v>542.8711147670357</v>
       </c>
       <c r="D131">
         <v>407.5097412501029</v>
@@ -2649,13 +2649,13 @@
         <v>134</v>
       </c>
       <c r="B135">
-        <v>947.5705584102493</v>
+        <v>947.5705584102495</v>
       </c>
       <c r="C135">
         <v>876.7455877854079</v>
       </c>
       <c r="D135">
-        <v>685.022321331843</v>
+        <v>685.0223213318428</v>
       </c>
       <c r="E135">
         <v>435.4996267011374</v>
@@ -2666,16 +2666,16 @@
         <v>135</v>
       </c>
       <c r="B136">
-        <v>697.0283139879924</v>
+        <v>697.0283139879925</v>
       </c>
       <c r="C136">
-        <v>657.5267675016571</v>
+        <v>657.526767501657</v>
       </c>
       <c r="D136">
         <v>571.4849353014797</v>
       </c>
       <c r="E136">
-        <v>434.6087589582153</v>
+        <v>434.6087589582152</v>
       </c>
     </row>
     <row r="137" spans="1:5">
@@ -2686,7 +2686,7 @@
         <v>353.4951502029058</v>
       </c>
       <c r="C137">
-        <v>313.2531992732354</v>
+        <v>313.2531992732353</v>
       </c>
       <c r="D137">
         <v>287.6192471385963</v>
@@ -2700,10 +2700,10 @@
         <v>137</v>
       </c>
       <c r="B138">
-        <v>563.2139854914799</v>
+        <v>563.2139854914798</v>
       </c>
       <c r="C138">
-        <v>620.364178952878</v>
+        <v>620.3641789528779</v>
       </c>
       <c r="D138">
         <v>482.6487366366857</v>
@@ -2740,7 +2740,7 @@
         <v>122.8016807398385</v>
       </c>
       <c r="D140">
-        <v>91.78323189308887</v>
+        <v>91.78323189308885</v>
       </c>
       <c r="E140">
         <v>61.65729495842272</v>
@@ -2771,7 +2771,7 @@
         <v>288.0908486691603</v>
       </c>
       <c r="C142">
-        <v>263.8529057762376</v>
+        <v>263.8529057762375</v>
       </c>
       <c r="D142">
         <v>207.9194379512696</v>
@@ -2839,7 +2839,7 @@
         <v>69.33200223928037</v>
       </c>
       <c r="C146">
-        <v>74.71845365521429</v>
+        <v>74.71845365521428</v>
       </c>
       <c r="D146">
         <v>63.2315500792262</v>
@@ -2853,7 +2853,7 @@
         <v>146</v>
       </c>
       <c r="B147">
-        <v>113.4282154387918</v>
+        <v>113.4282154387919</v>
       </c>
       <c r="C147">
         <v>98.74070410492575</v>
@@ -2876,7 +2876,7 @@
         <v>798.4823699324569</v>
       </c>
       <c r="D148">
-        <v>698.0963578224149</v>
+        <v>698.0963578224148</v>
       </c>
       <c r="E148">
         <v>448.6179590466359</v>
@@ -2887,7 +2887,7 @@
         <v>148</v>
       </c>
       <c r="B149">
-        <v>594.8071594679371</v>
+        <v>594.8071594679373</v>
       </c>
       <c r="C149">
         <v>623.2523730762011</v>
@@ -2910,7 +2910,7 @@
         <v>320.5566504057082</v>
       </c>
       <c r="D150">
-        <v>269.6164522773005</v>
+        <v>269.6164522773004</v>
       </c>
       <c r="E150">
         <v>200.3224605046616</v>
@@ -2930,7 +2930,7 @@
         <v>117.3129313471997</v>
       </c>
       <c r="E151">
-        <v>81.09425530521949</v>
+        <v>81.09425530521948</v>
       </c>
     </row>
     <row r="152" spans="1:5">
@@ -2944,7 +2944,7 @@
         <v>560.2691015888626</v>
       </c>
       <c r="D152">
-        <v>417.859175178909</v>
+        <v>417.8591751789089</v>
       </c>
       <c r="E152">
         <v>217.8178719024487</v>
@@ -2958,7 +2958,7 @@
         <v>17.72406697031177</v>
       </c>
       <c r="C153">
-        <v>18.57655746635949</v>
+        <v>18.57655746635948</v>
       </c>
       <c r="D153">
         <v>19.89361286165149</v>
@@ -2975,7 +2975,7 @@
         <v>513.9979421390414</v>
       </c>
       <c r="C154">
-        <v>450.7911278503236</v>
+        <v>450.7911278503234</v>
       </c>
       <c r="D154">
         <v>516.0637218816652</v>
@@ -2995,7 +2995,7 @@
         <v>456.1704385049413</v>
       </c>
       <c r="D155">
-        <v>511.2892176835214</v>
+        <v>511.2892176835213</v>
       </c>
       <c r="E155">
         <v>545.2810824394368</v>
@@ -3012,7 +3012,7 @@
         <v>559.8455381651553</v>
       </c>
       <c r="D156">
-        <v>678.6202343799466</v>
+        <v>678.6202343799465</v>
       </c>
       <c r="E156">
         <v>756.5555854424983</v>
@@ -3040,7 +3040,7 @@
         <v>157</v>
       </c>
       <c r="B158">
-        <v>785.5011829983285</v>
+        <v>785.5011829983288</v>
       </c>
       <c r="C158">
         <v>766.44644393877</v>
@@ -3060,7 +3060,7 @@
         <v>693.6013648597411</v>
       </c>
       <c r="C159">
-        <v>716.0725790877661</v>
+        <v>716.072579087766</v>
       </c>
       <c r="D159">
         <v>602.0842593786421</v>
@@ -3077,7 +3077,7 @@
         <v>216.0672596714729</v>
       </c>
       <c r="C160">
-        <v>169.8741632791453</v>
+        <v>169.8741632791452</v>
       </c>
       <c r="D160">
         <v>222.8050341287455</v>
@@ -3131,7 +3131,7 @@
         <v>686.5564611673477</v>
       </c>
       <c r="D163">
-        <v>507.0463411241575</v>
+        <v>507.0463411241574</v>
       </c>
       <c r="E163">
         <v>233.9070844313528</v>
@@ -3145,7 +3145,7 @@
         <v>72.07521022270885</v>
       </c>
       <c r="C164">
-        <v>54.27726450646193</v>
+        <v>54.27726450646192</v>
       </c>
       <c r="D164">
         <v>76.30730022763122</v>
@@ -3165,10 +3165,10 @@
         <v>806.4824457185696</v>
       </c>
       <c r="D165">
-        <v>682.4107676856736</v>
+        <v>682.4107676856737</v>
       </c>
       <c r="E165">
-        <v>396.2199563122512</v>
+        <v>396.2199563122511</v>
       </c>
     </row>
     <row r="166" spans="1:5">
@@ -3185,7 +3185,7 @@
         <v>377.221507692914</v>
       </c>
       <c r="E166">
-        <v>421.2632041152828</v>
+        <v>421.2632041152827</v>
       </c>
     </row>
     <row r="167" spans="1:5">
@@ -3216,7 +3216,7 @@
         <v>26.5265129433023</v>
       </c>
       <c r="D168">
-        <v>23.14244637611898</v>
+        <v>23.14244637611897</v>
       </c>
       <c r="E168">
         <v>16.09422586236824</v>
@@ -3233,10 +3233,10 @@
         <v>428.5530363243597</v>
       </c>
       <c r="D169">
-        <v>486.2384523072151</v>
+        <v>486.238452307215</v>
       </c>
       <c r="E169">
-        <v>697.4446732085493</v>
+        <v>697.4446732085491</v>
       </c>
     </row>
     <row r="170" spans="1:5">
@@ -3247,7 +3247,7 @@
         <v>537.2562302671175</v>
       </c>
       <c r="C170">
-        <v>515.6957480574224</v>
+        <v>515.6957480574223</v>
       </c>
       <c r="D170">
         <v>550.0968364741029</v>
@@ -3264,7 +3264,7 @@
         <v>96.66778480661765</v>
       </c>
       <c r="C171">
-        <v>82.71093582510554</v>
+        <v>82.71093582510552</v>
       </c>
       <c r="D171">
         <v>92.8864843507688</v>
@@ -3298,7 +3298,7 @@
         <v>628.6322585967238</v>
       </c>
       <c r="C173">
-        <v>621.6817659551959</v>
+        <v>621.6817659551958</v>
       </c>
       <c r="D173">
         <v>585.8818752270575</v>
@@ -3315,10 +3315,10 @@
         <v>255.0494255334332</v>
       </c>
       <c r="C174">
-        <v>318.3597950094383</v>
+        <v>318.3597950094382</v>
       </c>
       <c r="D174">
-        <v>391.3150475801637</v>
+        <v>391.3150475801636</v>
       </c>
       <c r="E174">
         <v>494.6833082710475</v>
@@ -3338,7 +3338,7 @@
         <v>10.82135573695912</v>
       </c>
       <c r="E175">
-        <v>10.51181745406028</v>
+        <v>10.51181745406029</v>
       </c>
     </row>
     <row r="176" spans="1:5">
@@ -3369,10 +3369,10 @@
         <v>624.5303186694862</v>
       </c>
       <c r="D177">
-        <v>555.1473581174076</v>
+        <v>555.1473581174075</v>
       </c>
       <c r="E177">
-        <v>384.9598902979507</v>
+        <v>384.9598902979506</v>
       </c>
     </row>
     <row r="178" spans="1:5">
@@ -3400,13 +3400,13 @@
         <v>75.46429604263621</v>
       </c>
       <c r="C179">
-        <v>57.00927640361335</v>
+        <v>57.00927640361333</v>
       </c>
       <c r="D179">
-        <v>95.29029821425084</v>
+        <v>95.29029821425083</v>
       </c>
       <c r="E179">
-        <v>596.8838714603447</v>
+        <v>596.8838714603446</v>
       </c>
     </row>
     <row r="180" spans="1:5">
@@ -3454,7 +3454,7 @@
         <v>3.871769755790453</v>
       </c>
       <c r="D182">
-        <v>3.633654855342984</v>
+        <v>3.633654855342983</v>
       </c>
       <c r="E182">
         <v>3.180355856054359</v>
@@ -3465,7 +3465,7 @@
         <v>182</v>
       </c>
       <c r="B183">
-        <v>5.893311116884659</v>
+        <v>5.89331111688466</v>
       </c>
       <c r="C183">
         <v>4.69121310010765</v>
@@ -3485,10 +3485,10 @@
         <v>6.933966381280708</v>
       </c>
       <c r="C184">
-        <v>6.03096534740835</v>
+        <v>6.030965347408349</v>
       </c>
       <c r="D184">
-        <v>6.951870993139613</v>
+        <v>6.951870993139611</v>
       </c>
       <c r="E184">
         <v>16.3628819357481</v>
@@ -3502,10 +3502,10 @@
         <v>699.1749434458048</v>
       </c>
       <c r="C185">
-        <v>575.3540941427566</v>
+        <v>575.3540941427565</v>
       </c>
       <c r="D185">
-        <v>769.3403899074505</v>
+        <v>769.3403899074502</v>
       </c>
       <c r="E185">
         <v>1812.189174384102</v>
@@ -3519,13 +3519,13 @@
         <v>458.7639880040099</v>
       </c>
       <c r="C186">
-        <v>376.8560018418325</v>
+        <v>376.8560018418324</v>
       </c>
       <c r="D186">
         <v>427.4032222669932</v>
       </c>
       <c r="E186">
-        <v>708.0920696541198</v>
+        <v>708.0920696541197</v>
       </c>
     </row>
     <row r="187" spans="1:5">
@@ -3542,7 +3542,7 @@
         <v>298.5327520247657</v>
       </c>
       <c r="E187">
-        <v>867.5468713355179</v>
+        <v>867.5468713355177</v>
       </c>
     </row>
     <row r="188" spans="1:5">
@@ -3556,7 +3556,7 @@
         <v>2.496629051080195</v>
       </c>
       <c r="D188">
-        <v>2.359667759853201</v>
+        <v>2.3596677598532</v>
       </c>
       <c r="E188">
         <v>5.253997306913973</v>
@@ -3601,13 +3601,13 @@
         <v>190</v>
       </c>
       <c r="B191">
-        <v>40.62508924147929</v>
+        <v>40.62508924147927</v>
       </c>
       <c r="C191">
-        <v>30.67956357609016</v>
+        <v>30.67956357609015</v>
       </c>
       <c r="D191">
-        <v>45.4371819944283</v>
+        <v>45.43718199442829</v>
       </c>
       <c r="E191">
         <v>156.9326726563345</v>
@@ -3644,7 +3644,7 @@
         <v>450.7157921604242</v>
       </c>
       <c r="E193">
-        <v>684.1028781353635</v>
+        <v>684.1028781353634</v>
       </c>
     </row>
     <row r="194" spans="1:5">
@@ -3661,7 +3661,7 @@
         <v>373.6755630966272</v>
       </c>
       <c r="E194">
-        <v>385.4451355440086</v>
+        <v>385.4451355440085</v>
       </c>
     </row>
     <row r="195" spans="1:5">
@@ -3678,7 +3678,7 @@
         <v>177.0886475739816</v>
       </c>
       <c r="E195">
-        <v>94.05605316856406</v>
+        <v>94.05605316856403</v>
       </c>
     </row>
     <row r="196" spans="1:5">
@@ -3763,7 +3763,7 @@
         <v>498.3728401393549</v>
       </c>
       <c r="E200">
-        <v>289.1765401553688</v>
+        <v>289.1765401553689</v>
       </c>
     </row>
     <row r="201" spans="1:5">
@@ -3771,10 +3771,10 @@
         <v>200</v>
       </c>
       <c r="B201">
-        <v>6.138263089200512</v>
+        <v>6.138263089200513</v>
       </c>
       <c r="C201">
-        <v>6.25502178618635</v>
+        <v>6.255021786186349</v>
       </c>
       <c r="D201">
         <v>5.807184718879369</v>
@@ -3794,7 +3794,7 @@
         <v>1.384683338629366</v>
       </c>
       <c r="D202">
-        <v>1.185806577824382</v>
+        <v>1.185806577824381</v>
       </c>
       <c r="E202">
         <v>1.027492648606174</v>
@@ -3811,10 +3811,10 @@
         <v>545.0437786762608</v>
       </c>
       <c r="D203">
-        <v>581.7911160887642</v>
+        <v>581.7911160887641</v>
       </c>
       <c r="E203">
-        <v>615.93356118804</v>
+        <v>615.9335611880399</v>
       </c>
     </row>
     <row r="204" spans="1:5">
@@ -3856,10 +3856,10 @@
         <v>205</v>
       </c>
       <c r="B206">
-        <v>396.0962702897602</v>
+        <v>396.0962702897603</v>
       </c>
       <c r="C206">
-        <v>397.8316667209665</v>
+        <v>397.8316667209664</v>
       </c>
       <c r="D206">
         <v>269.5751917803352</v>
@@ -3873,16 +3873,16 @@
         <v>206</v>
       </c>
       <c r="B207">
-        <v>435.5470252849855</v>
+        <v>435.5470252849856</v>
       </c>
       <c r="C207">
         <v>359.5711604685006</v>
       </c>
       <c r="D207">
-        <v>234.4466078414641</v>
+        <v>234.446607841464</v>
       </c>
       <c r="E207">
-        <v>77.04896641897801</v>
+        <v>77.048966418978</v>
       </c>
     </row>
     <row r="208" spans="1:5">
@@ -3890,7 +3890,7 @@
         <v>207</v>
       </c>
       <c r="B208">
-        <v>612.7186965873524</v>
+        <v>612.7186965873526</v>
       </c>
       <c r="C208">
         <v>577.907957306087</v>
@@ -3913,7 +3913,7 @@
         <v>132.7566726353029</v>
       </c>
       <c r="D209">
-        <v>97.48167690569441</v>
+        <v>97.48167690569443</v>
       </c>
       <c r="E209">
         <v>35.82404080738829</v>
@@ -3924,7 +3924,7 @@
         <v>209</v>
       </c>
       <c r="B210">
-        <v>455.232766540804</v>
+        <v>455.2327665408041</v>
       </c>
       <c r="C210">
         <v>469.0998506312503</v>
@@ -3984,7 +3984,7 @@
         <v>267.0910722244528</v>
       </c>
       <c r="E213">
-        <v>94.25407542515757</v>
+        <v>94.25407542515755</v>
       </c>
     </row>
     <row r="214" spans="1:5">
@@ -3992,7 +3992,7 @@
         <v>213</v>
       </c>
       <c r="B214">
-        <v>357.5863182107675</v>
+        <v>357.5863182107676</v>
       </c>
       <c r="C214">
         <v>363.3816253291839</v>
@@ -4001,7 +4001,7 @@
         <v>260.980700537827</v>
       </c>
       <c r="E214">
-        <v>82.19954226687994</v>
+        <v>82.19954226687993</v>
       </c>
     </row>
     <row r="215" spans="1:5">
@@ -4015,7 +4015,7 @@
         <v>403.6005625015403</v>
       </c>
       <c r="D215">
-        <v>319.5841512573988</v>
+        <v>319.5841512573989</v>
       </c>
       <c r="E215">
         <v>128.7275850594535</v>
@@ -4043,7 +4043,7 @@
         <v>216</v>
       </c>
       <c r="B217">
-        <v>452.0736148601776</v>
+        <v>452.0736148601778</v>
       </c>
       <c r="C217">
         <v>490.780011511186</v>
@@ -4063,7 +4063,7 @@
         <v>540.2339976350919</v>
       </c>
       <c r="C218">
-        <v>597.2088250302603</v>
+        <v>597.2088250302602</v>
       </c>
       <c r="D218">
         <v>508.542956038735</v>
@@ -4077,13 +4077,13 @@
         <v>218</v>
       </c>
       <c r="B219">
-        <v>434.7967680510537</v>
+        <v>434.7967680510538</v>
       </c>
       <c r="C219">
         <v>481.9558515004219</v>
       </c>
       <c r="D219">
-        <v>448.8539271087806</v>
+        <v>448.8539271087807</v>
       </c>
       <c r="E219">
         <v>281.1742278279569</v>
@@ -4097,13 +4097,13 @@
         <v>303.317199635802</v>
       </c>
       <c r="C220">
-        <v>346.4714818298451</v>
+        <v>346.471481829845</v>
       </c>
       <c r="D220">
         <v>358.0363017914552</v>
       </c>
       <c r="E220">
-        <v>281.9156828608273</v>
+        <v>281.9156828608272</v>
       </c>
     </row>
     <row r="221" spans="1:5">
@@ -4111,16 +4111,16 @@
         <v>220</v>
       </c>
       <c r="B221">
-        <v>480.6891255334946</v>
+        <v>480.6891255334949</v>
       </c>
       <c r="C221">
         <v>530.0572174247737</v>
       </c>
       <c r="D221">
-        <v>563.8721968843848</v>
+        <v>563.8721968843849</v>
       </c>
       <c r="E221">
-        <v>502.5795296945451</v>
+        <v>502.579529694545</v>
       </c>
     </row>
     <row r="222" spans="1:5">
@@ -4151,7 +4151,7 @@
         <v>11.19743457391638</v>
       </c>
       <c r="D223">
-        <v>9.686750500889968</v>
+        <v>9.686750500889966</v>
       </c>
       <c r="E223">
         <v>7.410564343521505</v>
@@ -4213,7 +4213,7 @@
         <v>226</v>
       </c>
       <c r="B227">
-        <v>41.36042040989749</v>
+        <v>41.3604204098975</v>
       </c>
       <c r="C227">
         <v>15.75710235353502</v>
@@ -4247,13 +4247,13 @@
         <v>228</v>
       </c>
       <c r="B229">
-        <v>578.3590671021649</v>
+        <v>578.359067102165</v>
       </c>
       <c r="C229">
         <v>643.5729815159972</v>
       </c>
       <c r="D229">
-        <v>519.485032042244</v>
+        <v>519.4850320422441</v>
       </c>
       <c r="E229">
         <v>242.2853632254394</v>
@@ -4290,7 +4290,7 @@
         <v>175.6873273254269</v>
       </c>
       <c r="E231">
-        <v>276.9580290707783</v>
+        <v>276.9580290707782</v>
       </c>
     </row>
     <row r="232" spans="1:5">
@@ -4298,7 +4298,7 @@
         <v>231</v>
       </c>
       <c r="B232">
-        <v>143.0494013122797</v>
+        <v>143.0494013122798</v>
       </c>
       <c r="C232">
         <v>124.4003722747495</v>
@@ -4307,7 +4307,7 @@
         <v>167.7393919418637</v>
       </c>
       <c r="E232">
-        <v>295.0044994812527</v>
+        <v>295.0044994812526</v>
       </c>
     </row>
     <row r="233" spans="1:5">
@@ -4324,7 +4324,7 @@
         <v>14.93510836778858</v>
       </c>
       <c r="E233">
-        <v>25.57265167650719</v>
+        <v>25.57265167650718</v>
       </c>
     </row>
     <row r="234" spans="1:5">
@@ -4332,13 +4332,13 @@
         <v>233</v>
       </c>
       <c r="B234">
-        <v>650.926216542235</v>
+        <v>650.9262165422351</v>
       </c>
       <c r="C234">
-        <v>603.1302023126869</v>
+        <v>603.1302023126868</v>
       </c>
       <c r="D234">
-        <v>658.6368688191956</v>
+        <v>658.6368688191955</v>
       </c>
       <c r="E234">
         <v>827.4547243894878</v>
@@ -4386,10 +4386,10 @@
         <v>375.0844159649653</v>
       </c>
       <c r="C237">
-        <v>492.3517663033852</v>
+        <v>492.3517663033853</v>
       </c>
       <c r="D237">
-        <v>473.6340304320425</v>
+        <v>473.6340304320426</v>
       </c>
       <c r="E237">
         <v>254.6670324137147</v>
@@ -4400,10 +4400,10 @@
         <v>237</v>
       </c>
       <c r="B238">
-        <v>542.3874103295148</v>
+        <v>542.3874103295149</v>
       </c>
       <c r="C238">
-        <v>629.9284441535533</v>
+        <v>629.9284441535534</v>
       </c>
       <c r="D238">
         <v>620.6768167948995</v>
@@ -4434,13 +4434,13 @@
         <v>239</v>
       </c>
       <c r="B240">
-        <v>564.772660074167</v>
+        <v>564.7726600741672</v>
       </c>
       <c r="C240">
         <v>471.8679899903</v>
       </c>
       <c r="D240">
-        <v>612.4309610082523</v>
+        <v>612.4309610082522</v>
       </c>
       <c r="E240">
         <v>1022.536743333369</v>
@@ -4451,10 +4451,10 @@
         <v>240</v>
       </c>
       <c r="B241">
-        <v>7.334967154951884</v>
+        <v>7.334967154951886</v>
       </c>
       <c r="C241">
-        <v>6.370325834377295</v>
+        <v>6.370325834377296</v>
       </c>
       <c r="D241">
         <v>8.847008284334891</v>
@@ -4485,7 +4485,7 @@
         <v>242</v>
       </c>
       <c r="B243">
-        <v>293.7235476015368</v>
+        <v>293.7235476015369</v>
       </c>
       <c r="C243">
         <v>333.4083271612366</v>
@@ -4502,13 +4502,13 @@
         <v>243</v>
       </c>
       <c r="B244">
-        <v>379.5881622281707</v>
+        <v>379.5881622281709</v>
       </c>
       <c r="C244">
         <v>312.72392419495</v>
       </c>
       <c r="D244">
-        <v>416.3657409276162</v>
+        <v>416.3657409276163</v>
       </c>
       <c r="E244">
         <v>793.7489321753235</v>
@@ -4525,10 +4525,10 @@
         <v>389.204623914086</v>
       </c>
       <c r="D245">
-        <v>481.1181084716786</v>
+        <v>481.1181084716785</v>
       </c>
       <c r="E245">
-        <v>806.6034253487793</v>
+        <v>806.6034253487792</v>
       </c>
     </row>
     <row r="246" spans="1:5">
@@ -4539,10 +4539,10 @@
         <v>4.622785539274588</v>
       </c>
       <c r="C246">
-        <v>4.997978453207401</v>
+        <v>4.997978453207402</v>
       </c>
       <c r="D246">
-        <v>6.052081495152779</v>
+        <v>6.052081495152778</v>
       </c>
       <c r="E246">
         <v>9.604967525471762</v>
@@ -4556,7 +4556,7 @@
         <v>1.155696384818647</v>
       </c>
       <c r="C247">
-        <v>1.24949461330185</v>
+        <v>1.249494613301851</v>
       </c>
       <c r="D247">
         <v>1.210416299030556</v>
@@ -4573,7 +4573,7 @@
         <v>58.02238000442181</v>
       </c>
       <c r="C248">
-        <v>57.70190380149793</v>
+        <v>57.70190380149792</v>
       </c>
       <c r="D248">
         <v>46.79652459617478</v>
@@ -4593,7 +4593,7 @@
         <v>0.8960708821586918</v>
       </c>
       <c r="D249">
-        <v>0.990572500408384</v>
+        <v>0.9905725004083842</v>
       </c>
       <c r="E249">
         <v>0.9528610378619468</v>
@@ -4607,10 +4607,10 @@
         <v>624.428373807082</v>
       </c>
       <c r="C250">
-        <v>621.6629368352488</v>
+        <v>621.6629368352487</v>
       </c>
       <c r="D250">
-        <v>702.8227813452725</v>
+        <v>702.8227813452723</v>
       </c>
       <c r="E250">
         <v>871.1858384334554</v>
@@ -4638,7 +4638,7 @@
         <v>251</v>
       </c>
       <c r="B252">
-        <v>767.1723376046568</v>
+        <v>767.1723376046569</v>
       </c>
       <c r="C252">
         <v>782.0109531885753</v>
@@ -4658,7 +4658,7 @@
         <v>105.658867887283</v>
       </c>
       <c r="C253">
-        <v>121.4444124146562</v>
+        <v>121.4444124146561</v>
       </c>
       <c r="D253">
         <v>135.1821831903541</v>
@@ -4692,7 +4692,7 @@
         <v>7.371548922368583</v>
       </c>
       <c r="C255">
-        <v>7.92028776617323</v>
+        <v>7.920287766173226</v>
       </c>
       <c r="D255">
         <v>8.84369422740634</v>
@@ -4709,10 +4709,10 @@
         <v>299.4870834723664</v>
       </c>
       <c r="C256">
-        <v>309.8668151574202</v>
+        <v>309.8668151574201</v>
       </c>
       <c r="D256">
-        <v>318.3893423916926</v>
+        <v>318.3893423916925</v>
       </c>
       <c r="E256">
         <v>323.6912689179829</v>
@@ -4726,7 +4726,7 @@
         <v>51.70208514043536</v>
       </c>
       <c r="C257">
-        <v>55.75195590710528</v>
+        <v>55.75195590710527</v>
       </c>
       <c r="D257">
         <v>54.84207588943163</v>
@@ -4740,7 +4740,7 @@
         <v>257</v>
       </c>
       <c r="B258">
-        <v>86.47666760065748</v>
+        <v>86.47666760065749</v>
       </c>
       <c r="C258">
         <v>98.56172376220684</v>
@@ -4774,7 +4774,7 @@
         <v>259</v>
       </c>
       <c r="B260">
-        <v>321.700192511998</v>
+        <v>321.7001925119981</v>
       </c>
       <c r="C260">
         <v>351.7990074498459</v>
@@ -4797,7 +4797,7 @@
         <v>10.72990186037077</v>
       </c>
       <c r="D261">
-        <v>18.83791178026701</v>
+        <v>18.83791178026702</v>
       </c>
       <c r="E261">
         <v>32.43482282885191</v>
@@ -4814,10 +4814,10 @@
         <v>344.2886405526676</v>
       </c>
       <c r="D262">
-        <v>447.7977892431967</v>
+        <v>447.7977892431966</v>
       </c>
       <c r="E262">
-        <v>401.9054148121982</v>
+        <v>401.905414812198</v>
       </c>
     </row>
     <row r="263" spans="1:5">
@@ -4842,7 +4842,7 @@
         <v>263</v>
       </c>
       <c r="B264">
-        <v>45.26791853186586</v>
+        <v>45.26791853186585</v>
       </c>
       <c r="C264">
         <v>33.37766465643436</v>
@@ -4851,7 +4851,7 @@
         <v>44.97259414474455</v>
       </c>
       <c r="E264">
-        <v>78.13247714452486</v>
+        <v>78.13247714452484</v>
       </c>
     </row>
     <row r="265" spans="1:5">
@@ -4862,7 +4862,7 @@
         <v>23.85741652355092</v>
       </c>
       <c r="C265">
-        <v>19.07295123224821</v>
+        <v>19.0729512322482</v>
       </c>
       <c r="D265">
         <v>24.60764585278475</v>
@@ -4893,7 +4893,7 @@
         <v>266</v>
       </c>
       <c r="B267">
-        <v>29.36297418283191</v>
+        <v>29.3629741828319</v>
       </c>
       <c r="C267">
         <v>33.37766465643436</v>
@@ -4902,7 +4902,7 @@
         <v>50.91237072989949</v>
       </c>
       <c r="E267">
-        <v>73.88614686493111</v>
+        <v>73.88614686493109</v>
       </c>
     </row>
     <row r="268" spans="1:5">
@@ -4919,7 +4919,7 @@
         <v>94.18955890133508</v>
       </c>
       <c r="E268">
-        <v>98.92620962799833</v>
+        <v>98.92620962799832</v>
       </c>
     </row>
     <row r="269" spans="1:5">
@@ -4933,10 +4933,10 @@
         <v>125.9351639401411</v>
       </c>
       <c r="D269">
-        <v>194.6584217294258</v>
+        <v>194.6584217294259</v>
       </c>
       <c r="E269">
-        <v>235.9633360798977</v>
+        <v>235.9633360798976</v>
       </c>
     </row>
     <row r="270" spans="1:5">
@@ -4944,13 +4944,13 @@
         <v>269</v>
       </c>
       <c r="B270">
-        <v>262.8802593565143</v>
+        <v>262.8802593565144</v>
       </c>
       <c r="C270">
         <v>325.1566481132282</v>
       </c>
       <c r="D270">
-        <v>371.8675100787473</v>
+        <v>371.8675100787472</v>
       </c>
       <c r="E270">
         <v>348.6125757586878</v>
@@ -4964,13 +4964,13 @@
         <v>29.39303318035867</v>
       </c>
       <c r="C271">
-        <v>28.45104108269234</v>
+        <v>28.45104108269235</v>
       </c>
       <c r="D271">
         <v>33.89498576714666</v>
       </c>
       <c r="E271">
-        <v>39.247191415415</v>
+        <v>39.24719141541499</v>
       </c>
     </row>
     <row r="272" spans="1:5">
@@ -4978,16 +4978,16 @@
         <v>271</v>
       </c>
       <c r="B272">
-        <v>48.58848342059292</v>
+        <v>48.5884834205929</v>
       </c>
       <c r="C272">
-        <v>55.54727068525646</v>
+        <v>55.54727068525648</v>
       </c>
       <c r="D272">
         <v>72.51950443203471</v>
       </c>
       <c r="E272">
-        <v>88.6986525988379</v>
+        <v>88.69865259883788</v>
       </c>
     </row>
     <row r="273" spans="1:5">
@@ -5015,7 +5015,7 @@
         <v>51.30438098376307</v>
       </c>
       <c r="C274">
-        <v>67.4669026263727</v>
+        <v>67.46690262637269</v>
       </c>
       <c r="D274">
         <v>92.29351064561438</v>
@@ -5029,16 +5029,16 @@
         <v>274</v>
       </c>
       <c r="B275">
-        <v>889.749187448099</v>
+        <v>889.7491874480991</v>
       </c>
       <c r="C275">
         <v>894.9729942403587</v>
       </c>
       <c r="D275">
-        <v>1033.848640143904</v>
+        <v>1033.848640143903</v>
       </c>
       <c r="E275">
-        <v>910.2559387267071</v>
+        <v>910.2559387267069</v>
       </c>
     </row>
     <row r="276" spans="1:5">
@@ -5052,7 +5052,7 @@
         <v>28.58974016624678</v>
       </c>
       <c r="D276">
-        <v>36.46166189090218</v>
+        <v>36.46166189090219</v>
       </c>
       <c r="E276">
         <v>56.7210624631521</v>
@@ -5063,7 +5063,7 @@
         <v>276</v>
       </c>
       <c r="B277">
-        <v>99.31307506420333</v>
+        <v>99.31307506420337</v>
       </c>
       <c r="C277">
         <v>73.63930932152354</v>
@@ -5086,7 +5086,7 @@
         <v>208.4151422640349</v>
       </c>
       <c r="D278">
-        <v>221.7447968460153</v>
+        <v>221.7447968460152</v>
       </c>
       <c r="E278">
         <v>191.0065091884441</v>
@@ -5106,7 +5106,7 @@
         <v>59.34336319326525</v>
       </c>
       <c r="E279">
-        <v>80.93836875442869</v>
+        <v>80.93836875442868</v>
       </c>
     </row>
     <row r="280" spans="1:5">
@@ -5148,7 +5148,7 @@
         <v>281</v>
       </c>
       <c r="B282">
-        <v>9.056395221243664</v>
+        <v>9.056395221243665</v>
       </c>
       <c r="C282">
         <v>11.22635933056393</v>
@@ -5202,7 +5202,7 @@
         <v>62.24043175946043</v>
       </c>
       <c r="C285">
-        <v>57.17948033249355</v>
+        <v>57.17948033249357</v>
       </c>
       <c r="D285">
         <v>70.27156655337511</v>
@@ -5236,13 +5236,13 @@
         <v>572.3977221648457</v>
       </c>
       <c r="C287">
-        <v>599.6062415579269</v>
+        <v>599.6062415579265</v>
       </c>
       <c r="D287">
         <v>675.4199372849658</v>
       </c>
       <c r="E287">
-        <v>767.3863202952172</v>
+        <v>767.386320295217</v>
       </c>
     </row>
     <row r="288" spans="1:5">
@@ -5250,7 +5250,7 @@
         <v>287</v>
       </c>
       <c r="B288">
-        <v>407.1796665841324</v>
+        <v>407.1796665841325</v>
       </c>
       <c r="C288">
         <v>429.3426923211902</v>
@@ -5284,7 +5284,7 @@
         <v>289</v>
       </c>
       <c r="B290">
-        <v>141.5842457135918</v>
+        <v>141.5842457135919</v>
       </c>
       <c r="C290">
         <v>110.0613450139907</v>
@@ -5293,7 +5293,7 @@
         <v>145.3136541051607</v>
       </c>
       <c r="E290">
-        <v>313.7599456000635</v>
+        <v>313.7599456000634</v>
       </c>
     </row>
     <row r="291" spans="1:5">
@@ -5338,7 +5338,7 @@
         <v>373.48569149781</v>
       </c>
       <c r="C293">
-        <v>513.4835641295964</v>
+        <v>513.4835641295963</v>
       </c>
       <c r="D293">
         <v>564.4244088993744</v>
@@ -5352,7 +5352,7 @@
         <v>293</v>
       </c>
       <c r="B294">
-        <v>29.0682412998662</v>
+        <v>29.06824129986621</v>
       </c>
       <c r="C294">
         <v>27.75496625777334</v>
@@ -5412,7 +5412,7 @@
         <v>228.9930529593348</v>
       </c>
       <c r="E297">
-        <v>208.8267050281349</v>
+        <v>208.8267050281348</v>
       </c>
     </row>
     <row r="298" spans="1:5">
@@ -5429,7 +5429,7 @@
         <v>340.5540697372392</v>
       </c>
       <c r="E298">
-        <v>337.3715467588506</v>
+        <v>337.3715467588505</v>
       </c>
     </row>
     <row r="299" spans="1:5">
@@ -5477,7 +5477,7 @@
         <v>389.1163714564376</v>
       </c>
       <c r="D301">
-        <v>363.4983041626442</v>
+        <v>363.4983041626441</v>
       </c>
       <c r="E301">
         <v>256.1051645882135</v>
@@ -5488,7 +5488,7 @@
         <v>301</v>
       </c>
       <c r="B302">
-        <v>12.03404082042406</v>
+        <v>12.03404082042407</v>
       </c>
       <c r="C302">
         <v>13.01872213228132</v>
@@ -5505,7 +5505,7 @@
         <v>302</v>
       </c>
       <c r="B303">
-        <v>51.07843732045282</v>
+        <v>51.07843732045284</v>
       </c>
       <c r="C303">
         <v>50.72397419266095</v>
@@ -5525,7 +5525,7 @@
         <v>29.48065558524287</v>
       </c>
       <c r="C304">
-        <v>43.01650140251301</v>
+        <v>43.016501402513</v>
       </c>
       <c r="D304">
         <v>34.96640720145182</v>
@@ -5542,7 +5542,7 @@
         <v>184.991113797399</v>
       </c>
       <c r="C305">
-        <v>222.3871959299729</v>
+        <v>222.3871959299728</v>
       </c>
       <c r="D305">
         <v>232.2128067993852</v>
@@ -5562,7 +5562,7 @@
         <v>277.3497325537327</v>
       </c>
       <c r="D306">
-        <v>295.5801260649061</v>
+        <v>295.580126064906</v>
       </c>
       <c r="E306">
         <v>236.0887170878609</v>
@@ -5579,7 +5579,7 @@
         <v>202.9080254835519</v>
       </c>
       <c r="D307">
-        <v>230.4196577121313</v>
+        <v>230.4196577121312</v>
       </c>
       <c r="E307">
         <v>211.7380366436746</v>
@@ -5599,7 +5599,7 @@
         <v>5.846582946996836</v>
       </c>
       <c r="E308">
-        <v>4.630861843137447</v>
+        <v>4.630861843137449</v>
       </c>
     </row>
     <row r="309" spans="1:5">
@@ -5633,7 +5633,7 @@
         <v>276.6607690506078</v>
       </c>
       <c r="E310">
-        <v>314.2947754582286</v>
+        <v>314.2947754582287</v>
       </c>
     </row>
     <row r="311" spans="1:5">
@@ -5647,10 +5647,10 @@
         <v>52.34645861637438</v>
       </c>
       <c r="D311">
-        <v>65.6210730224699</v>
+        <v>65.62107302246989</v>
       </c>
       <c r="E311">
-        <v>74.21529075758187</v>
+        <v>74.21529075758185</v>
       </c>
     </row>
     <row r="312" spans="1:5">
@@ -5684,7 +5684,7 @@
         <v>22.89107198458252</v>
       </c>
       <c r="E313">
-        <v>27.34247554226701</v>
+        <v>27.342475542267</v>
       </c>
     </row>
     <row r="314" spans="1:5">
@@ -5701,7 +5701,7 @@
         <v>27.46928638149902</v>
       </c>
       <c r="E314">
-        <v>21.09276684689169</v>
+        <v>21.09276684689168</v>
       </c>
     </row>
     <row r="315" spans="1:5">
@@ -5715,10 +5715,10 @@
         <v>757.9181101750121</v>
       </c>
       <c r="D315">
-        <v>804.4528363117971</v>
+        <v>804.4528363117969</v>
       </c>
       <c r="E315">
-        <v>938.4404143568248</v>
+        <v>938.4404143568247</v>
       </c>
     </row>
     <row r="316" spans="1:5">
@@ -5729,13 +5729,13 @@
         <v>368.9338310509523</v>
       </c>
       <c r="C316">
-        <v>396.9071440538315</v>
+        <v>396.9071440538314</v>
       </c>
       <c r="D316">
         <v>371.989891093415</v>
       </c>
       <c r="E316">
-        <v>310.0146731395352</v>
+        <v>310.0146731395351</v>
       </c>
     </row>
     <row r="317" spans="1:5">
@@ -5743,7 +5743,7 @@
         <v>316</v>
       </c>
       <c r="B317">
-        <v>668.472260928387</v>
+        <v>668.4722609283871</v>
       </c>
       <c r="C317">
         <v>674.8280953445432</v>
@@ -5766,7 +5766,7 @@
         <v>630.5239992802221</v>
       </c>
       <c r="D318">
-        <v>558.9935164870343</v>
+        <v>558.9935164870342</v>
       </c>
       <c r="E318">
         <v>372.3094443126944</v>
@@ -5780,10 +5780,10 @@
         <v>437.4637143198105</v>
       </c>
       <c r="C319">
-        <v>485.2238728896406</v>
+        <v>485.2238728896407</v>
       </c>
       <c r="D319">
-        <v>456.4467746296126</v>
+        <v>456.4467746296125</v>
       </c>
       <c r="E319">
         <v>349.1815224356362</v>
@@ -5803,7 +5803,7 @@
         <v>357.8551953564428</v>
       </c>
       <c r="E320">
-        <v>406.2528371448927</v>
+        <v>406.2528371448925</v>
       </c>
     </row>
     <row r="321" spans="1:5">
@@ -5814,13 +5814,13 @@
         <v>520.1655850288855</v>
       </c>
       <c r="C321">
-        <v>628.920383104634</v>
+        <v>628.9203831046339</v>
       </c>
       <c r="D321">
         <v>652.6506893781313</v>
       </c>
       <c r="E321">
-        <v>549.7642537245786</v>
+        <v>549.7642537245785</v>
       </c>
     </row>
     <row r="322" spans="1:5">
@@ -5837,7 +5837,7 @@
         <v>44.24613370183349</v>
       </c>
       <c r="E322">
-        <v>48.76041538659715</v>
+        <v>48.76041538659717</v>
       </c>
     </row>
     <row r="323" spans="1:5">
@@ -5848,7 +5848,7 @@
         <v>443.7619869749915</v>
       </c>
       <c r="C323">
-        <v>505.4358314921141</v>
+        <v>505.435831492114</v>
       </c>
       <c r="D323">
         <v>590.0689598334488</v>
@@ -5871,7 +5871,7 @@
         <v>332.2155845870809</v>
       </c>
       <c r="E324">
-        <v>501.0037017330246</v>
+        <v>501.0037017330245</v>
       </c>
     </row>
     <row r="325" spans="1:5">
@@ -5879,7 +5879,7 @@
         <v>324</v>
       </c>
       <c r="B325">
-        <v>422.2896327665241</v>
+        <v>422.2896327665243</v>
       </c>
       <c r="C325">
         <v>421.8228407805934</v>
@@ -5888,7 +5888,7 @@
         <v>532.1243811263998</v>
       </c>
       <c r="E325">
-        <v>802.5086321453313</v>
+        <v>802.508632145331</v>
       </c>
     </row>
     <row r="326" spans="1:5">
@@ -5899,10 +5899,10 @@
         <v>334.7279919752838</v>
       </c>
       <c r="C326">
-        <v>304.1917976565072</v>
+        <v>304.191797656507</v>
       </c>
       <c r="D326">
-        <v>353.960413033165</v>
+        <v>353.9604130331649</v>
       </c>
       <c r="E326">
         <v>507.9228971134149</v>
@@ -5919,7 +5919,7 @@
         <v>399.4822666812627</v>
       </c>
       <c r="D327">
-        <v>453.6597489379615</v>
+        <v>453.6597489379614</v>
       </c>
       <c r="E327">
         <v>645.4369116407174</v>
@@ -5939,7 +5939,7 @@
         <v>21.41989577450106</v>
       </c>
       <c r="E328">
-        <v>20.68394579000911</v>
+        <v>20.6839457900091</v>
       </c>
     </row>
     <row r="329" spans="1:5">
@@ -5950,10 +5950,10 @@
         <v>56.95846992024038</v>
       </c>
       <c r="C329">
-        <v>72.18144051826013</v>
+        <v>72.18144051826012</v>
       </c>
       <c r="D329">
-        <v>65.45260657484394</v>
+        <v>65.45260657484391</v>
       </c>
       <c r="E329">
         <v>46.00283341770357</v>
@@ -5981,7 +5981,7 @@
         <v>330</v>
       </c>
       <c r="B331">
-        <v>78.31582625447814</v>
+        <v>78.31582625447817</v>
       </c>
       <c r="C331">
         <v>77.06731057523685</v>
@@ -6004,7 +6004,7 @@
         <v>855.5487789633123</v>
       </c>
       <c r="D332">
-        <v>952.8438567877132</v>
+        <v>952.8438567877131</v>
       </c>
       <c r="E332">
         <v>1401.64010367108</v>
@@ -6018,7 +6018,7 @@
         <v>436.5832525073918</v>
       </c>
       <c r="C333">
-        <v>433.6355707432838</v>
+        <v>433.6355707432837</v>
       </c>
       <c r="D333">
         <v>512.0733947384255</v>
@@ -6035,7 +6035,7 @@
         <v>491.0811182117918</v>
       </c>
       <c r="C334">
-        <v>420.9767062094014</v>
+        <v>420.9767062094013</v>
       </c>
       <c r="D334">
         <v>424.5519934500158</v>
@@ -6052,10 +6052,10 @@
         <v>568.7743795542675</v>
       </c>
       <c r="C335">
-        <v>550.2345413505961</v>
+        <v>550.2345413505959</v>
       </c>
       <c r="D335">
-        <v>614.7985155789305</v>
+        <v>614.7985155789304</v>
       </c>
       <c r="E335">
         <v>871.6239345721597</v>
@@ -6174,7 +6174,7 @@
         <v>51.89457482582616</v>
       </c>
       <c r="D342">
-        <v>70.51920572258523</v>
+        <v>70.51920572258521</v>
       </c>
       <c r="E342">
         <v>103.682722920348</v>
@@ -6185,7 +6185,7 @@
         <v>342</v>
       </c>
       <c r="B343">
-        <v>33.30021601345598</v>
+        <v>33.30021601345599</v>
       </c>
       <c r="C343">
         <v>26.84202146163422</v>
@@ -6194,7 +6194,7 @@
         <v>33.478814837995</v>
       </c>
       <c r="E343">
-        <v>45.59098454653598</v>
+        <v>45.59098454653599</v>
       </c>
     </row>
     <row r="344" spans="1:5">
@@ -6208,7 +6208,7 @@
         <v>14.72178347082386</v>
       </c>
       <c r="D344">
-        <v>19.04697952225123</v>
+        <v>19.04697952225122</v>
       </c>
       <c r="E344">
         <v>22.58192455180039</v>
@@ -6219,16 +6219,16 @@
         <v>344</v>
       </c>
       <c r="B345">
-        <v>84.44988707993197</v>
+        <v>84.44988707993198</v>
       </c>
       <c r="C345">
-        <v>94.27599404099246</v>
+        <v>94.27599404099247</v>
       </c>
       <c r="D345">
         <v>109.903009085124</v>
       </c>
       <c r="E345">
-        <v>85.5624940838966</v>
+        <v>85.56249408389658</v>
       </c>
     </row>
     <row r="346" spans="1:5">
@@ -6242,10 +6242,10 @@
         <v>11.89066591508013</v>
       </c>
       <c r="D346">
-        <v>18.22512210959343</v>
+        <v>18.22512210959344</v>
       </c>
       <c r="E346">
-        <v>21.24310197945019</v>
+        <v>21.24310197945018</v>
       </c>
     </row>
     <row r="347" spans="1:5">
@@ -6259,7 +6259,7 @@
         <v>14.43866575402587</v>
       </c>
       <c r="D347">
-        <v>19.3296749647203</v>
+        <v>19.32967496472031</v>
       </c>
       <c r="E347">
         <v>24.19353280992938</v>
@@ -6324,13 +6324,13 @@
         <v>32.00094668680439</v>
       </c>
       <c r="C351">
-        <v>38.698896025595</v>
+        <v>38.69889602559499</v>
       </c>
       <c r="D351">
         <v>44.26664022584483</v>
       </c>
       <c r="E351">
-        <v>30.43654307883237</v>
+        <v>30.43654307883238</v>
       </c>
     </row>
     <row r="352" spans="1:5">
@@ -6341,13 +6341,13 @@
         <v>23.80558229140327</v>
       </c>
       <c r="C352">
-        <v>29.42728551946287</v>
+        <v>29.42728551946286</v>
       </c>
       <c r="D352">
-        <v>43.74585622318783</v>
+        <v>43.74585622318782</v>
       </c>
       <c r="E352">
-        <v>52.72044069012036</v>
+        <v>52.72044069012037</v>
       </c>
     </row>
     <row r="353" spans="1:5">
@@ -6355,7 +6355,7 @@
         <v>352</v>
       </c>
       <c r="B353">
-        <v>461.2969253181961</v>
+        <v>461.2969253181963</v>
       </c>
       <c r="C353">
         <v>477.3202535613676</v>
@@ -6381,7 +6381,7 @@
         <v>153.9562176629334</v>
       </c>
       <c r="E354">
-        <v>66.16206408415461</v>
+        <v>66.16206408415462</v>
       </c>
     </row>
     <row r="355" spans="1:5">
@@ -6395,7 +6395,7 @@
         <v>57.13726042078948</v>
       </c>
       <c r="D355">
-        <v>77.7316214266915</v>
+        <v>77.73162142669149</v>
       </c>
       <c r="E355">
         <v>104.8667312089401</v>
@@ -6432,7 +6432,7 @@
         <v>29.17031187083866</v>
       </c>
       <c r="E357">
-        <v>36.80622578109906</v>
+        <v>36.80622578109907</v>
       </c>
     </row>
     <row r="358" spans="1:5">
@@ -6440,16 +6440,16 @@
         <v>357</v>
       </c>
       <c r="B358">
-        <v>49.88182145536913</v>
+        <v>49.88182145536914</v>
       </c>
       <c r="C358">
-        <v>47.36292769542099</v>
+        <v>47.36292769542098</v>
       </c>
       <c r="D358">
-        <v>57.66224439584386</v>
+        <v>57.66224439584385</v>
       </c>
       <c r="E358">
-        <v>72.22353738177928</v>
+        <v>72.22353738177929</v>
       </c>
     </row>
     <row r="359" spans="1:5">
@@ -6460,7 +6460,7 @@
         <v>46.25719780160556</v>
       </c>
       <c r="C359">
-        <v>64.7271489986047</v>
+        <v>64.72714899860472</v>
       </c>
       <c r="D359">
         <v>76.57104669875551</v>
@@ -6483,7 +6483,7 @@
         <v>29.325081714417</v>
       </c>
       <c r="E360">
-        <v>26.01631078556212</v>
+        <v>26.01631078556213</v>
       </c>
     </row>
     <row r="361" spans="1:5">
@@ -6528,7 +6528,7 @@
         <v>66.12416256949089</v>
       </c>
       <c r="C363">
-        <v>82.91361667552825</v>
+        <v>82.91361667552823</v>
       </c>
       <c r="D363">
         <v>110.0808806978608</v>
@@ -6551,7 +6551,7 @@
         <v>532.9839844577489</v>
       </c>
       <c r="E364">
-        <v>566.3227140289298</v>
+        <v>566.3227140289296</v>
       </c>
     </row>
     <row r="365" spans="1:5">
@@ -6568,7 +6568,7 @@
         <v>7.724405571851436</v>
       </c>
       <c r="E365">
-        <v>51.85360577284635</v>
+        <v>51.85360577284634</v>
       </c>
     </row>
     <row r="366" spans="1:5">
@@ -6616,7 +6616,7 @@
         <v>38.18307782832908</v>
       </c>
       <c r="D368">
-        <v>52.95387717752447</v>
+        <v>52.95387717752448</v>
       </c>
       <c r="E368">
         <v>88.20140384573531</v>
@@ -6633,7 +6633,7 @@
         <v>6.267709091650463</v>
       </c>
       <c r="D369">
-        <v>9.034980617151492</v>
+        <v>9.03498061715149</v>
       </c>
       <c r="E369">
         <v>14.40713688724973</v>
@@ -6644,7 +6644,7 @@
         <v>369</v>
       </c>
       <c r="B370">
-        <v>80.29768649636428</v>
+        <v>80.29768649636426</v>
       </c>
       <c r="C370">
         <v>91.67540663008469</v>
@@ -6678,7 +6678,7 @@
         <v>371</v>
       </c>
       <c r="B372">
-        <v>54.41661398927166</v>
+        <v>54.41661398927165</v>
       </c>
       <c r="C372">
         <v>73.95663055872379</v>
@@ -6695,7 +6695,7 @@
         <v>372</v>
       </c>
       <c r="B373">
-        <v>611.2933607699001</v>
+        <v>611.2933607699002</v>
       </c>
       <c r="C373">
         <v>706.479589787327</v>
@@ -6712,13 +6712,13 @@
         <v>373</v>
       </c>
       <c r="B374">
-        <v>334.7360106779326</v>
+        <v>334.7360106779327</v>
       </c>
       <c r="C374">
         <v>390.1066587927663</v>
       </c>
       <c r="D374">
-        <v>414.7585093155213</v>
+        <v>414.7585093155212</v>
       </c>
       <c r="E374">
         <v>283.0035289110887</v>
@@ -6729,7 +6729,7 @@
         <v>374</v>
       </c>
       <c r="B375">
-        <v>15.09795020766505</v>
+        <v>15.09795020766506</v>
       </c>
       <c r="C375">
         <v>22.88983010760366</v>
@@ -6755,7 +6755,7 @@
         <v>35.260278103056</v>
       </c>
       <c r="E376">
-        <v>58.08738687324278</v>
+        <v>58.08738687324276</v>
       </c>
     </row>
     <row r="377" spans="1:5">
@@ -6763,13 +6763,13 @@
         <v>376</v>
       </c>
       <c r="B377">
-        <v>92.8330426222671</v>
+        <v>92.83304262226712</v>
       </c>
       <c r="C377">
         <v>100.0489947689786</v>
       </c>
       <c r="D377">
-        <v>137.6829906881235</v>
+        <v>137.6829906881234</v>
       </c>
       <c r="E377">
         <v>170.8947758734533</v>
@@ -6783,13 +6783,13 @@
         <v>662.9394851152572</v>
       </c>
       <c r="C378">
-        <v>704.4366958939781</v>
+        <v>704.4366958939783</v>
       </c>
       <c r="D378">
         <v>735.8612824867536</v>
       </c>
       <c r="E378">
-        <v>645.7738042239789</v>
+        <v>645.7738042239788</v>
       </c>
     </row>
     <row r="379" spans="1:5">
@@ -6800,7 +6800,7 @@
         <v>8.56019421239213</v>
       </c>
       <c r="C379">
-        <v>9.649817751972304</v>
+        <v>9.649817751972305</v>
       </c>
       <c r="D379">
         <v>10.16382986860157</v>
@@ -6823,7 +6823,7 @@
         <v>3.145383286814833</v>
       </c>
       <c r="E380">
-        <v>2.886418418732372</v>
+        <v>2.886418418732371</v>
       </c>
     </row>
     <row r="381" spans="1:5">
@@ -6840,7 +6840,7 @@
         <v>20.96922191209889</v>
       </c>
       <c r="E381">
-        <v>16.35637103948345</v>
+        <v>16.35637103948344</v>
       </c>
     </row>
     <row r="382" spans="1:5">
@@ -6882,7 +6882,7 @@
         <v>383</v>
       </c>
       <c r="B384">
-        <v>2.200957701841755</v>
+        <v>2.200957701841756</v>
       </c>
       <c r="C384">
         <v>2.535212551431522</v>
@@ -6939,7 +6939,7 @@
         <v>83.88441495848635</v>
       </c>
       <c r="D387">
-        <v>116.2013448745743</v>
+        <v>116.2013448745742</v>
       </c>
       <c r="E387">
         <v>126.4368102170312</v>
@@ -6953,13 +6953,13 @@
         <v>748.1019353461387</v>
       </c>
       <c r="C388">
-        <v>652.2239524928953</v>
+        <v>652.2239524928954</v>
       </c>
       <c r="D388">
         <v>616.6222382495653</v>
       </c>
       <c r="E388">
-        <v>491.5254791879337</v>
+        <v>491.5254791879338</v>
       </c>
     </row>
     <row r="389" spans="1:5">
@@ -6973,7 +6973,7 @@
         <v>26.35564747220554</v>
       </c>
       <c r="D389">
-        <v>30.59867371118655</v>
+        <v>30.59867371118654</v>
       </c>
       <c r="E389">
         <v>35.44781573973471</v>
@@ -7004,13 +7004,13 @@
         <v>59.96809100971052</v>
       </c>
       <c r="C391">
-        <v>47.40331703757469</v>
+        <v>47.40331703757471</v>
       </c>
       <c r="D391">
         <v>56.16405813394891</v>
       </c>
       <c r="E391">
-        <v>77.71153821153104</v>
+        <v>77.71153821153105</v>
       </c>
     </row>
     <row r="392" spans="1:5">
@@ -7018,7 +7018,7 @@
         <v>391</v>
       </c>
       <c r="B392">
-        <v>17.58481556087527</v>
+        <v>17.58481556087526</v>
       </c>
       <c r="C392">
         <v>14.98654464105805</v>
@@ -7035,16 +7035,16 @@
         <v>392</v>
       </c>
       <c r="B393">
-        <v>100.3961633716282</v>
+        <v>100.3961633716281</v>
       </c>
       <c r="C393">
-        <v>84.1690873470304</v>
+        <v>84.16908734703043</v>
       </c>
       <c r="D393">
         <v>89.30987956661255</v>
       </c>
       <c r="E393">
-        <v>97.73486182962581</v>
+        <v>97.73486182962579</v>
       </c>
     </row>
     <row r="394" spans="1:5">
@@ -7052,7 +7052,7 @@
         <v>393</v>
       </c>
       <c r="B394">
-        <v>28.36049812757858</v>
+        <v>28.36049812757857</v>
       </c>
       <c r="C394">
         <v>22.26695432461122</v>
@@ -7075,7 +7075,7 @@
         <v>90.69059791462102</v>
       </c>
       <c r="D395">
-        <v>97.38497485106346</v>
+        <v>97.38497485106343</v>
       </c>
       <c r="E395">
         <v>108.5163959245317</v>
@@ -7086,7 +7086,7 @@
         <v>395</v>
       </c>
       <c r="B396">
-        <v>32.87177864781403</v>
+        <v>32.87177864781401</v>
       </c>
       <c r="C396">
         <v>25.39336741609389</v>
@@ -7109,10 +7109,10 @@
         <v>44.38148441305989</v>
       </c>
       <c r="D397">
-        <v>49.21943895372438</v>
+        <v>49.21943895372436</v>
       </c>
       <c r="E397">
-        <v>50.7270501667129</v>
+        <v>50.72705016671289</v>
       </c>
     </row>
     <row r="398" spans="1:5">
@@ -7126,7 +7126,7 @@
         <v>13.96271419736715</v>
       </c>
       <c r="D398">
-        <v>15.38107467303887</v>
+        <v>15.38107467303886</v>
       </c>
       <c r="E398">
         <v>17.64419136233492</v>
@@ -7137,7 +7137,7 @@
         <v>398</v>
       </c>
       <c r="B399">
-        <v>599.482026886682</v>
+        <v>599.4820268866821</v>
       </c>
       <c r="C399">
         <v>487.989684781357</v>
@@ -7160,10 +7160,10 @@
         <v>25.13989842244543</v>
       </c>
       <c r="D400">
-        <v>37.08880571341698</v>
+        <v>37.08880571341697</v>
       </c>
       <c r="E400">
-        <v>44.77370127995993</v>
+        <v>44.77370127995992</v>
       </c>
     </row>
     <row r="401" spans="1:5">
@@ -7174,7 +7174,7 @@
         <v>31.43249245374239</v>
       </c>
       <c r="C401">
-        <v>21.26113079686088</v>
+        <v>21.26113079686087</v>
       </c>
       <c r="D401">
         <v>29.99770705036286</v>
@@ -7205,13 +7205,13 @@
         <v>402</v>
       </c>
       <c r="B403">
-        <v>54.90991165435498</v>
+        <v>54.90991165435499</v>
       </c>
       <c r="C403">
         <v>41.48083239703496</v>
       </c>
       <c r="D403">
-        <v>68.9619981233847</v>
+        <v>68.96199812338467</v>
       </c>
       <c r="E403">
         <v>123.9887112368121</v>
@@ -7242,7 +7242,7 @@
         <v>10.01200924072665</v>
       </c>
       <c r="C405">
-        <v>7.898912461101931</v>
+        <v>7.89891246110193</v>
       </c>
       <c r="D405">
         <v>9.338948198276878</v>
@@ -7256,10 +7256,10 @@
         <v>405</v>
       </c>
       <c r="B406">
-        <v>8.009607392581321</v>
+        <v>8.009607392581323</v>
       </c>
       <c r="C406">
-        <v>6.394357706606325</v>
+        <v>6.394357706606324</v>
       </c>
       <c r="D406">
         <v>7.263626376437571</v>
@@ -7273,7 +7273,7 @@
         <v>406</v>
       </c>
       <c r="B407">
-        <v>98.68186956610515</v>
+        <v>98.68186956610516</v>
       </c>
       <c r="C407">
         <v>74.21210581264017</v>
@@ -7290,7 +7290,7 @@
         <v>407</v>
       </c>
       <c r="B408">
-        <v>0.4676865856213514</v>
+        <v>0.4676865856213515</v>
       </c>
       <c r="C408">
         <v>0.3419912710259916</v>
@@ -7307,7 +7307,7 @@
         <v>408</v>
       </c>
       <c r="B409">
-        <v>1.403059756864054</v>
+        <v>1.403059756864055</v>
       </c>
       <c r="C409">
         <v>1.025973813077975</v>
@@ -7327,10 +7327,10 @@
         <v>471.3263929953976</v>
       </c>
       <c r="C410">
-        <v>501.8330171147947</v>
+        <v>501.8330171147946</v>
       </c>
       <c r="D410">
-        <v>589.3392372770635</v>
+        <v>589.3392372770636</v>
       </c>
       <c r="E410">
         <v>567.4031517292276</v>
@@ -7364,7 +7364,7 @@
         <v>2.080921030130727</v>
       </c>
       <c r="D412">
-        <v>2.511673632605906</v>
+        <v>2.511673632605905</v>
       </c>
       <c r="E412">
         <v>2.620374237686315</v>
@@ -7395,7 +7395,7 @@
         <v>12.66005427139955</v>
       </c>
       <c r="C414">
-        <v>13.03441161090362</v>
+        <v>13.03441161090361</v>
       </c>
       <c r="D414">
         <v>15.82072844700462</v>
@@ -7418,7 +7418,7 @@
         <v>208.0219971891241</v>
       </c>
       <c r="E415">
-        <v>240.0413908794583</v>
+        <v>240.0413908794584</v>
       </c>
     </row>
     <row r="416" spans="1:5">
@@ -7429,7 +7429,7 @@
         <v>8.558894269103803</v>
       </c>
       <c r="C416">
-        <v>8.277784868738228</v>
+        <v>8.277784868738227</v>
       </c>
       <c r="D416">
         <v>10.18883251538567</v>
@@ -7446,13 +7446,13 @@
         <v>63.68537108547457</v>
       </c>
       <c r="C417">
-        <v>59.58706995985089</v>
+        <v>59.58706995985088</v>
       </c>
       <c r="D417">
         <v>75.16270849477866</v>
       </c>
       <c r="E417">
-        <v>72.44564985758447</v>
+        <v>72.44564985758444</v>
       </c>
     </row>
     <row r="418" spans="1:5">
@@ -7463,7 +7463,7 @@
         <v>0.6123593373603324</v>
       </c>
       <c r="C418">
-        <v>0.5368204500887468</v>
+        <v>0.5368204500887467</v>
       </c>
       <c r="D418">
         <v>0.7024552195773707</v>
@@ -7511,7 +7511,7 @@
         <v>420</v>
       </c>
       <c r="B421">
-        <v>97.97731988686226</v>
+        <v>97.97731988686228</v>
       </c>
       <c r="C421">
         <v>95.1177714290595</v>
@@ -7520,7 +7520,7 @@
         <v>92.05176557566989</v>
       </c>
       <c r="E421">
-        <v>67.19038887895681</v>
+        <v>67.19038887895677</v>
       </c>
     </row>
     <row r="422" spans="1:5">
@@ -7537,7 +7537,7 @@
         <v>41.42329450905144</v>
       </c>
       <c r="E422">
-        <v>39.08012414388304</v>
+        <v>39.08012414388303</v>
       </c>
     </row>
     <row r="423" spans="1:5">
@@ -7545,7 +7545,7 @@
         <v>422</v>
       </c>
       <c r="B423">
-        <v>89.63694189179303</v>
+        <v>89.63694189179301</v>
       </c>
       <c r="C423">
         <v>85.67638473262235</v>
@@ -7554,7 +7554,7 @@
         <v>81.8691101658132</v>
       </c>
       <c r="E423">
-        <v>62.19111011999384</v>
+        <v>62.19111011999383</v>
       </c>
     </row>
     <row r="424" spans="1:5">
@@ -7562,7 +7562,7 @@
         <v>423</v>
       </c>
       <c r="B424">
-        <v>94.19475249646047</v>
+        <v>94.19475249646045</v>
       </c>
       <c r="C424">
         <v>102.8116616791468</v>
@@ -7588,7 +7588,7 @@
         <v>15.12279005886005</v>
       </c>
       <c r="E425">
-        <v>6.170545917455216</v>
+        <v>6.170545917455215</v>
       </c>
     </row>
     <row r="426" spans="1:5">
@@ -7613,7 +7613,7 @@
         <v>426</v>
       </c>
       <c r="B427">
-        <v>30.48384595611454</v>
+        <v>30.48384595611453</v>
       </c>
       <c r="C427">
         <v>22.16978527157054</v>
@@ -7622,7 +7622,7 @@
         <v>25.83310189431155</v>
       </c>
       <c r="E427">
-        <v>38.82215057231066</v>
+        <v>38.82215057231065</v>
       </c>
     </row>
     <row r="428" spans="1:5">
@@ -7639,7 +7639,7 @@
         <v>85.572150024907</v>
       </c>
       <c r="E428">
-        <v>82.49706996616014</v>
+        <v>82.49706996616013</v>
       </c>
     </row>
     <row r="429" spans="1:5">
@@ -7653,10 +7653,10 @@
         <v>17.13527694652447</v>
       </c>
       <c r="D429">
-        <v>24.17088014419247</v>
+        <v>24.17088014419246</v>
       </c>
       <c r="E429">
-        <v>59.79914434614792</v>
+        <v>59.79914434614791</v>
       </c>
     </row>
     <row r="430" spans="1:5">
@@ -7664,7 +7664,7 @@
         <v>429</v>
       </c>
       <c r="B430">
-        <v>37.98175503889535</v>
+        <v>37.98175503889534</v>
       </c>
       <c r="C430">
         <v>37.12643338413636</v>
@@ -7690,7 +7690,7 @@
         <v>97.96937907696294</v>
       </c>
       <c r="E431">
-        <v>80.90271313996838</v>
+        <v>80.90271313996836</v>
       </c>
     </row>
     <row r="432" spans="1:5">
@@ -7707,7 +7707,7 @@
         <v>116.1761658543444</v>
       </c>
       <c r="E432">
-        <v>94.88130902922137</v>
+        <v>94.88130902922136</v>
       </c>
     </row>
     <row r="433" spans="1:5">
@@ -7735,7 +7735,7 @@
         <v>13.86230778231536</v>
       </c>
       <c r="C434">
-        <v>19.41703865255189</v>
+        <v>19.4170386525519</v>
       </c>
       <c r="D434">
         <v>26.11229289598112</v>
@@ -7758,7 +7758,7 @@
         <v>18.71293946647159</v>
       </c>
       <c r="E435">
-        <v>16.74376041692142</v>
+        <v>16.74376041692141</v>
       </c>
     </row>
     <row r="436" spans="1:5">
@@ -7766,7 +7766,7 @@
         <v>435</v>
       </c>
       <c r="B436">
-        <v>42.81211743491574</v>
+        <v>42.81211743491575</v>
       </c>
       <c r="C436">
         <v>41.52733855614889</v>
@@ -7792,7 +7792,7 @@
         <v>48.56492520119291</v>
       </c>
       <c r="E437">
-        <v>48.57634622527483</v>
+        <v>48.57634622527482</v>
       </c>
     </row>
     <row r="438" spans="1:5">
@@ -7806,7 +7806,7 @@
         <v>36.88819278639424</v>
       </c>
       <c r="D438">
-        <v>39.2884788144482</v>
+        <v>39.28847881444818</v>
       </c>
       <c r="E438">
         <v>25.16605888779299</v>
@@ -7860,7 +7860,7 @@
         <v>10.91346633734672</v>
       </c>
       <c r="E441">
-        <v>9.949372118429785</v>
+        <v>9.949372118429784</v>
       </c>
     </row>
     <row r="442" spans="1:5">
@@ -7894,7 +7894,7 @@
         <v>13.09615960481606</v>
       </c>
       <c r="E443">
-        <v>9.949372118429785</v>
+        <v>9.949372118429784</v>
       </c>
     </row>
     <row r="444" spans="1:5">
@@ -7905,13 +7905,13 @@
         <v>14.81100430255367</v>
       </c>
       <c r="C444">
-        <v>15.67748193421756</v>
+        <v>15.67748193421755</v>
       </c>
       <c r="D444">
         <v>15.27885287228541</v>
       </c>
       <c r="E444">
-        <v>9.949372118429785</v>
+        <v>9.949372118429782</v>
       </c>
     </row>
     <row r="445" spans="1:5">
@@ -7925,7 +7925,7 @@
         <v>0.4611024098299281</v>
       </c>
       <c r="D445">
-        <v>0.5456733168673361</v>
+        <v>0.5456733168673359</v>
       </c>
       <c r="E445">
         <v>0.5852571834370462</v>
@@ -7942,10 +7942,10 @@
         <v>6.916536147448921</v>
       </c>
       <c r="D446">
-        <v>7.639426436142704</v>
+        <v>7.639426436142703</v>
       </c>
       <c r="E446">
-        <v>9.36411493499274</v>
+        <v>9.364114934992738</v>
       </c>
     </row>
     <row r="447" spans="1:5">
@@ -7959,7 +7959,7 @@
         <v>0.4611024098299281</v>
       </c>
       <c r="D447">
-        <v>0.5456733168673361</v>
+        <v>0.5456733168673359</v>
       </c>
       <c r="E447">
         <v>0.5852571834370462</v>
@@ -7970,10 +7970,10 @@
         <v>447</v>
       </c>
       <c r="B448">
-        <v>6.309356586201517</v>
+        <v>6.309356586201516</v>
       </c>
       <c r="C448">
-        <v>6.6753246396327</v>
+        <v>6.675324639632699</v>
       </c>
       <c r="D448">
         <v>7.268983240087753</v>
@@ -7987,7 +7987,7 @@
         <v>448</v>
       </c>
       <c r="B449">
-        <v>45.74283524996099</v>
+        <v>45.74283524996098</v>
       </c>
       <c r="C449">
         <v>51.73376595715343</v>
@@ -8004,7 +8004,7 @@
         <v>449</v>
       </c>
       <c r="B450">
-        <v>24.44875677153088</v>
+        <v>24.44875677153087</v>
       </c>
       <c r="C450">
         <v>20.0259739188981</v>
@@ -8024,7 +8024,7 @@
         <v>38.64480909048429</v>
       </c>
       <c r="C451">
-        <v>42.55519457765847</v>
+        <v>42.55519457765846</v>
       </c>
       <c r="D451">
         <v>53.60875139564718</v>
@@ -8038,10 +8038,10 @@
         <v>451</v>
       </c>
       <c r="B452">
-        <v>39.43347866375948</v>
+        <v>39.43347866375947</v>
       </c>
       <c r="C452">
-        <v>38.38311667788803</v>
+        <v>38.38311667788802</v>
       </c>
       <c r="D452">
         <v>46.33976815555942</v>
@@ -8115,7 +8115,7 @@
         <v>29.03664844250088</v>
       </c>
       <c r="E456">
-        <v>38.88545536223644</v>
+        <v>38.88545536223643</v>
       </c>
     </row>
     <row r="457" spans="1:5">
@@ -8149,7 +8149,7 @@
         <v>42.70095359191306</v>
       </c>
       <c r="E458">
-        <v>30.4320955008807</v>
+        <v>30.43209550088069</v>
       </c>
     </row>
     <row r="459" spans="1:5">
@@ -8180,7 +8180,7 @@
         <v>36.36592706947673</v>
       </c>
       <c r="D460">
-        <v>35.01478194536871</v>
+        <v>35.0147819453687</v>
       </c>
       <c r="E460">
         <v>21.13339965338937</v>
@@ -8234,7 +8234,7 @@
         <v>50.85891935442586</v>
       </c>
       <c r="E463">
-        <v>45.2925090010291</v>
+        <v>45.29250900102909</v>
       </c>
     </row>
     <row r="464" spans="1:5">
@@ -8251,7 +8251,7 @@
         <v>49.24435048603139</v>
       </c>
       <c r="E464">
-        <v>42.86612459025969</v>
+        <v>42.86612459025967</v>
       </c>
     </row>
     <row r="465" spans="1:5">
@@ -8259,7 +8259,7 @@
         <v>464</v>
       </c>
       <c r="B465">
-        <v>2.217969245170457</v>
+        <v>2.217969245170458</v>
       </c>
       <c r="C465">
         <v>2.696810923965542</v>
@@ -8310,7 +8310,7 @@
         <v>467</v>
       </c>
       <c r="B468">
-        <v>25.23742634480607</v>
+        <v>25.23742634480606</v>
       </c>
       <c r="C468">
         <v>17.52272717903584</v>
@@ -8330,7 +8330,7 @@
         <v>17.35073061205417</v>
       </c>
       <c r="C469">
-        <v>15.01948043917358</v>
+        <v>15.01948043917357</v>
       </c>
       <c r="D469">
         <v>19.08108100523035</v>
@@ -8361,7 +8361,7 @@
         <v>470</v>
       </c>
       <c r="B471">
-        <v>8.598007833775895</v>
+        <v>8.598007833775894</v>
       </c>
       <c r="C471">
         <v>7.389928423856846</v>
@@ -8435,7 +8435,7 @@
         <v>26.32014415530563</v>
       </c>
       <c r="D475">
-        <v>30.93153548225799</v>
+        <v>30.93153548225798</v>
       </c>
       <c r="E475">
         <v>35.13768095000795</v>
@@ -8455,7 +8455,7 @@
         <v>47.09778770978421</v>
       </c>
       <c r="E476">
-        <v>48.93038214777555</v>
+        <v>48.93038214777554</v>
       </c>
     </row>
     <row r="477" spans="1:5">
@@ -8469,10 +8469,10 @@
         <v>10.53590052884538</v>
       </c>
       <c r="D477">
-        <v>15.4842041785592</v>
+        <v>15.48420417855919</v>
       </c>
       <c r="E477">
-        <v>15.16152686269102</v>
+        <v>15.16152686269101</v>
       </c>
     </row>
     <row r="478" spans="1:5">
@@ -8486,7 +8486,7 @@
         <v>104.2390471514942</v>
       </c>
       <c r="D478">
-        <v>99.30481871623107</v>
+        <v>99.30481871623105</v>
       </c>
       <c r="E478">
         <v>69.86945649161731</v>
@@ -8537,7 +8537,7 @@
         <v>243.8133645238339</v>
       </c>
       <c r="D481">
-        <v>218.9640412687083</v>
+        <v>218.9640412687082</v>
       </c>
       <c r="E481">
         <v>139.0859274085466</v>
@@ -8554,7 +8554,7 @@
         <v>84.80464853002917</v>
       </c>
       <c r="D482">
-        <v>90.05281697248284</v>
+        <v>90.05281697248282</v>
       </c>
       <c r="E482">
         <v>86.84708143350562</v>
@@ -8602,7 +8602,7 @@
         <v>35.6844017934636</v>
       </c>
       <c r="C485">
-        <v>24.7782260517063</v>
+        <v>24.77822605170631</v>
       </c>
       <c r="D485">
         <v>31.37863906438819</v>
@@ -8625,7 +8625,7 @@
         <v>85.69947048166449</v>
       </c>
       <c r="E486">
-        <v>76.73165726807389</v>
+        <v>76.73165726807387</v>
       </c>
     </row>
     <row r="487" spans="1:5">
@@ -8636,7 +8636,7 @@
         <v>71.50453758001937</v>
       </c>
       <c r="C487">
-        <v>54.51632182582266</v>
+        <v>54.51632182582267</v>
       </c>
       <c r="D487">
         <v>58.03420080230163</v>
@@ -8650,16 +8650,16 @@
         <v>487</v>
       </c>
       <c r="B488">
-        <v>91.62790727424952</v>
+        <v>91.62790727424954</v>
       </c>
       <c r="C488">
         <v>86.28411095546052</v>
       </c>
       <c r="D488">
-        <v>99.14938976024277</v>
+        <v>99.14938976024274</v>
       </c>
       <c r="E488">
-        <v>111.1930953708677</v>
+        <v>111.1930953708676</v>
       </c>
     </row>
     <row r="489" spans="1:5">
@@ -8673,7 +8673,7 @@
         <v>9.151345101336721</v>
       </c>
       <c r="D489">
-        <v>9.573044528575164</v>
+        <v>9.57304452857516</v>
       </c>
       <c r="E489">
         <v>12.74825297245616</v>
@@ -8684,7 +8684,7 @@
         <v>489</v>
       </c>
       <c r="B490">
-        <v>90.23118842298396</v>
+        <v>90.23118842298395</v>
       </c>
       <c r="C490">
         <v>97.74098779123071</v>
@@ -8693,7 +8693,7 @@
         <v>89.71361800585655</v>
       </c>
       <c r="E490">
-        <v>59.65755650496102</v>
+        <v>59.65755650496101</v>
       </c>
     </row>
     <row r="491" spans="1:5">
@@ -8701,10 +8701,10 @@
         <v>490</v>
       </c>
       <c r="B491">
-        <v>6.946202284860043</v>
+        <v>6.946202284860041</v>
       </c>
       <c r="C491">
-        <v>6.27257998061141</v>
+        <v>6.272579980611411</v>
       </c>
       <c r="D491">
         <v>6.430835016009294</v>
@@ -8721,7 +8721,7 @@
         <v>247.6558150332964</v>
       </c>
       <c r="C492">
-        <v>267.2740285618609</v>
+        <v>267.274028561861</v>
       </c>
       <c r="D492">
         <v>254.9287957196122</v>
@@ -8735,10 +8735,10 @@
         <v>492</v>
       </c>
       <c r="B493">
-        <v>99.83025102117375</v>
+        <v>99.83025102117372</v>
       </c>
       <c r="C493">
-        <v>87.36141386649822</v>
+        <v>87.36141386649824</v>
       </c>
       <c r="D493">
         <v>101.260915372947</v>
@@ -8752,7 +8752,7 @@
         <v>493</v>
       </c>
       <c r="B494">
-        <v>253.4152525922103</v>
+        <v>253.4152525922102</v>
       </c>
       <c r="C494">
         <v>231.810484319025</v>
@@ -8761,7 +8761,7 @@
         <v>226.5046791236972</v>
       </c>
       <c r="E494">
-        <v>200.0282776931046</v>
+        <v>200.0282776931045</v>
       </c>
     </row>
     <row r="495" spans="1:5">
@@ -8772,13 +8772,13 @@
         <v>0.8608928366612996</v>
       </c>
       <c r="C495">
-        <v>0.8841797654493022</v>
+        <v>0.8841797654493023</v>
       </c>
       <c r="D495">
         <v>0.9437655169640243</v>
       </c>
       <c r="E495">
-        <v>0.9073120085479708</v>
+        <v>0.9073120085479707</v>
       </c>
     </row>
     <row r="496" spans="1:5">
@@ -8789,13 +8789,13 @@
         <v>0.9843378042706168</v>
       </c>
       <c r="C496">
-        <v>0.9645215340632856</v>
+        <v>0.9645215340632858</v>
       </c>
       <c r="D496">
-        <v>0.9841533895111401</v>
+        <v>0.9841533895111398</v>
       </c>
       <c r="E496">
-        <v>0.9295099063693084</v>
+        <v>0.9295099063693083</v>
       </c>
     </row>
     <row r="497" spans="1:5">
@@ -8809,10 +8809,10 @@
         <v>52.16660616150883</v>
       </c>
       <c r="D497">
-        <v>54.73839998391342</v>
+        <v>54.73839998391341</v>
       </c>
       <c r="E497">
-        <v>54.43872051287825</v>
+        <v>54.43872051287824</v>
       </c>
     </row>
     <row r="498" spans="1:5">
@@ -8843,10 +8843,10 @@
         <v>33.6325942377666</v>
       </c>
       <c r="D499">
-        <v>38.08478773709936</v>
+        <v>38.08478773709935</v>
       </c>
       <c r="E499">
-        <v>44.13953172088614</v>
+        <v>44.13953172088613</v>
       </c>
     </row>
     <row r="500" spans="1:5">
@@ -8863,7 +8863,7 @@
         <v>18.13561320814255</v>
       </c>
       <c r="E500">
-        <v>16.44413926856543</v>
+        <v>16.44413926856542</v>
       </c>
     </row>
     <row r="501" spans="1:5">
@@ -8874,13 +8874,13 @@
         <v>104.1074720371469</v>
       </c>
       <c r="C501">
-        <v>94.96243931160737</v>
+        <v>94.96243931160738</v>
       </c>
       <c r="D501">
         <v>105.8160084277251</v>
       </c>
       <c r="E501">
-        <v>116.0343295445051</v>
+        <v>116.034329544505</v>
       </c>
     </row>
   </sheetData>
